--- a/Comments/Delicacy.xlsx
+++ b/Comments/Delicacy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life\Delicacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AAD10F-CCA9-429E-87C5-9BC189386316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7C284-EEDB-416C-8642-F85F9DC20E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21736" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="992">
   <si>
     <t>美食</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3681,12 +3681,291 @@
   <si>
     <t>https://www.bilibili.com/video/BV1jG41197Wm/?spm_id_from=333.999.0.0&amp;vd_source=2673a456fdc690e205f46df05c4f80b0</t>
   </si>
+  <si>
+    <t>豚骨鱼介沾面：46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清酒炸鸡：12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾面是原富士55家主厨做的，口感摆盘都一样。但我个人口味比较重，推荐加重的汤底。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ciTysiT（成都光环购物公园B馆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦江区东大街东大陆段333号成都光环购物公园B馆L1层B-LI-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鸡选择切开，不然一块很大。环境很不错，就在商场一楼。中午11:30开始营业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁2号线东大路站G口步行151米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东大路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1sZ421N73B/?spm_id_from=333.1007.top_right_bar_window_custom_collection.content.click</t>
+  </si>
+  <si>
+    <t>寿喜烧：158</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半熟牛肉芥末：58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤蒲烧鳗鱼：88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红酒牛舌：88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价：501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐渍青花鱼、芥末章鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭*5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总共五人去的，其实没吃饱。味道没啥问题，很好吃，老板是日本人。只是价格适合小资生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐下次去吃的话每个人都点个主食，再配菜。这样会吃饱，也不回太贵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌麻衣居酒屋（泛悦mall店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武侯区长荣路泛悦国际街区一层3栋1单元108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地铁1号线桐梓林站C口步行1.7公里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桐梓林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Tr421H7AG/?spm_id_from=333.999.0.0</t>
+  </si>
+  <si>
+    <t>新疆菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤包子：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小份大盘鸡：38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉抓饭：18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手抓饭和烤包子都是第一梯队的，特别好吃。很正宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大盘鸡感觉较为普通，肉吃着有点柴，土豆炖的时间短，太硬。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这家店大部分菜品最好提前打电话预约，不然当场出餐较慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成华区祥和里63号，地铁6号线玉双路地铁站E2口步行400米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉双路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV17S4y187sG/?spm_id_from=333.999.0.0&amp;vd_source=2673a456fdc690e205f46df05c4f80b0</t>
+  </si>
+  <si>
+    <t>Hill's·哈萨克小馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜水面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甜水面：7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五香油茶：7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很传统的老成都甜水面店。甜水面味道特别浓郁，就是吃多了会有点齁，所以配上油茶解腻正好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西饮甜水面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成华区双建路125号，地铁7号线八里庄站C口步行1.3km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八里庄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新派川菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人均200+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合商务宴请店，整体味道还算可以，在普通以上，但达不到惊艳，且部分菜不好吃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性价比肯定是不够的。至少分店的口感是不如视频中老店的口感的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南堂馆·新川菜（春熙路店）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦江区人民南路二段1号仁恒置地广场购物中心B区4楼424A号，地铁1号线锦江宾馆C2口步行412米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦江宾馆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Vu411J7vz/?spm_id_from=333.999.0.0</t>
+  </si>
+  <si>
+    <t>6人人均：67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1u1UNYtEiQ/?spm_id_from=333.999.0.0</t>
+  </si>
+  <si>
+    <t>梁家巷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林老四牛肉火锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汕牛肉很不错，点的牛骨玉米汤底很舒服。湿炒牛河很惊艳，别的店没吃到过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>六人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点了三人份的海鲜粥，咸的很符合我的口味。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金牛区红花东路47-49号，地铁6号线梁家巷站D口步行1.2km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汕牛肉火锅、海鲜粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>«««««</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘遇盖码饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜皮炒肉盖码饭：19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现炒锅气很足的湘菜，味道很好吃，就是有点辣。黄瓜皮脆脆的还带点甜味，强烈推荐。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多菜需要提前预定，预约电话/微信：17307378622</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦江区青和里北段96号附3号，地铁牛王庙站G口步行280m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛王庙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Upm8YxEeo/?spm_id_from=333.999.0.0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3743,6 +4022,12 @@
       <color rgb="FFFF0000"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3814,7 +4099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -3838,11 +4123,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4134,10 +4420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H347"/>
+  <dimension ref="A1:H373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E321" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F344" sqref="F344"/>
+    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4178,10 +4464,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="15">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -4190,7 +4476,7 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="F2" t="s">
@@ -4204,40 +4490,40 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="17"/>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="17"/>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="17"/>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="15">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
@@ -4246,7 +4532,7 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="17" t="s">
         <v>174</v>
       </c>
       <c r="F6" t="s">
@@ -4260,31 +4546,31 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="17"/>
       <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="17"/>
       <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
+      <c r="A9" s="17">
         <v>3</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
@@ -4293,7 +4579,7 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="17" t="s">
         <v>175</v>
       </c>
       <c r="F9" t="s">
@@ -4307,46 +4593,46 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>327</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="17"/>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" t="s">
         <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>164</v>
       </c>
-      <c r="E11" s="15"/>
+      <c r="E11" s="17"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="15"/>
+      <c r="E12" s="17"/>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
+      <c r="A13" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -4355,7 +4641,7 @@
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="17" t="s">
         <v>176</v>
       </c>
       <c r="F13" t="s">
@@ -4369,34 +4655,34 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="15"/>
+      <c r="E14" s="17"/>
       <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="15"/>
+      <c r="E15" s="17"/>
       <c r="G15" s="16"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
+      <c r="A16" s="17">
         <v>5</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
@@ -4405,7 +4691,7 @@
       <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="17" t="s">
         <v>40</v>
       </c>
       <c r="F16" t="s">
@@ -4419,34 +4705,34 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" t="s">
         <v>43</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="15"/>
+      <c r="E17" s="17"/>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="15"/>
+      <c r="E18" s="17"/>
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
+      <c r="A19" s="17">
         <v>6</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C19" t="s">
@@ -4455,7 +4741,7 @@
       <c r="D19" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F19" t="s">
@@ -4469,43 +4755,43 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" t="s">
         <v>48</v>
       </c>
       <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="17"/>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="17"/>
       <c r="G21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="15"/>
+      <c r="E22" s="17"/>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="15">
+      <c r="A23" s="17">
         <v>7</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>55</v>
       </c>
       <c r="C23" t="s">
@@ -4514,7 +4800,7 @@
       <c r="D23" t="s">
         <v>438</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F23" t="s">
@@ -4528,31 +4814,31 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="15"/>
+      <c r="E24" s="17"/>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="17"/>
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="15">
+      <c r="A26" s="17">
         <v>8</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C26" t="s">
@@ -4561,7 +4847,7 @@
       <c r="D26" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="17" t="s">
         <v>65</v>
       </c>
       <c r="F26" t="s">
@@ -4572,31 +4858,31 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="D27" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="15"/>
+      <c r="E27" s="17"/>
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="15"/>
+      <c r="E28" s="17"/>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="15">
+      <c r="A29" s="17">
         <v>9</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="17" t="s">
         <v>108</v>
       </c>
       <c r="C29" t="s">
@@ -4605,7 +4891,7 @@
       <c r="D29" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="17" t="s">
         <v>73</v>
       </c>
       <c r="F29" t="s">
@@ -4619,67 +4905,67 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" t="s">
         <v>68</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="15"/>
+      <c r="E30" s="17"/>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
       <c r="C31" t="s">
         <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="15"/>
+      <c r="E31" s="17"/>
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
       <c r="C32" t="s">
         <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="15"/>
+      <c r="E32" s="17"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="15"/>
+      <c r="E33" s="17"/>
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="15"/>
+      <c r="E34" s="17"/>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="15">
+      <c r="A35" s="17">
         <v>10</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C35" t="s">
@@ -4688,7 +4974,7 @@
       <c r="D35" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F35" t="s">
@@ -4702,43 +4988,43 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
       <c r="C36" t="s">
         <v>81</v>
       </c>
       <c r="D36" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="15"/>
+      <c r="E36" s="17"/>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
       <c r="D37" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="15"/>
+      <c r="E37" s="17"/>
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="15"/>
+      <c r="E38" s="17"/>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="15">
+      <c r="A39" s="17">
         <v>11</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="17" t="s">
         <v>92</v>
       </c>
       <c r="C39" t="s">
@@ -4747,7 +5033,7 @@
       <c r="D39" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="17" t="s">
         <v>95</v>
       </c>
       <c r="F39" t="s">
@@ -4761,46 +5047,46 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
       <c r="C40" t="s">
         <v>89</v>
       </c>
       <c r="D40" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="15"/>
+      <c r="E40" s="17"/>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
       <c r="C41" t="s">
         <v>49</v>
       </c>
       <c r="D41" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="15"/>
+      <c r="E41" s="17"/>
       <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="17"/>
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="15">
+      <c r="A43" s="17">
         <v>12</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C43" t="s">
@@ -4809,7 +5095,7 @@
       <c r="D43" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="17" t="s">
         <v>104</v>
       </c>
       <c r="F43" t="s">
@@ -4823,43 +5109,43 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
       <c r="C44" t="s">
         <v>29</v>
       </c>
       <c r="D44" t="s">
         <v>144</v>
       </c>
-      <c r="E44" s="15"/>
+      <c r="E44" s="17"/>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
       <c r="D45" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="15"/>
+      <c r="E45" s="17"/>
       <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E46" s="15"/>
+      <c r="E46" s="17"/>
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="15">
+      <c r="A47" s="17">
         <v>13</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="17" t="s">
         <v>109</v>
       </c>
       <c r="C47" t="s">
@@ -4868,7 +5154,7 @@
       <c r="D47" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="17" t="s">
         <v>177</v>
       </c>
       <c r="F47" t="s">
@@ -4882,43 +5168,43 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
       <c r="C48" t="s">
         <v>111</v>
       </c>
       <c r="D48" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="15"/>
+      <c r="E48" s="17"/>
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
       <c r="C49" t="s">
         <v>49</v>
       </c>
-      <c r="E49" s="15"/>
+      <c r="E49" s="17"/>
       <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="15"/>
+      <c r="E50" s="17"/>
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="15">
+      <c r="A51" s="17">
         <v>14</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="17" t="s">
         <v>122</v>
       </c>
       <c r="C51" t="s">
@@ -4927,7 +5213,7 @@
       <c r="D51" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="17" t="s">
         <v>178</v>
       </c>
       <c r="F51" t="s">
@@ -4941,46 +5227,46 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="15"/>
-      <c r="B52" s="15"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
       <c r="C52" t="s">
         <v>29</v>
       </c>
       <c r="D52" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="17"/>
       <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
       <c r="C53" t="s">
         <v>118</v>
       </c>
       <c r="D53" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="15"/>
+      <c r="E53" s="17"/>
       <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E54" s="15"/>
+      <c r="E54" s="17"/>
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="15">
+      <c r="A55" s="17">
         <v>15</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="17" t="s">
         <v>124</v>
       </c>
       <c r="C55" t="s">
@@ -4989,7 +5275,7 @@
       <c r="D55" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="17" t="s">
         <v>130</v>
       </c>
       <c r="F55" t="s">
@@ -5003,34 +5289,34 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
       <c r="C56" t="s">
         <v>126</v>
       </c>
       <c r="D56" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="15"/>
+      <c r="E56" s="17"/>
       <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" s="15"/>
-      <c r="B57" s="15"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="15"/>
+      <c r="E57" s="17"/>
       <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="15">
+      <c r="A58" s="17">
         <v>16</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="17" t="s">
         <v>133</v>
       </c>
       <c r="C58" t="s">
@@ -5039,7 +5325,7 @@
       <c r="D58" t="s">
         <v>137</v>
       </c>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="17" t="s">
         <v>138</v>
       </c>
       <c r="F58" t="s">
@@ -5053,43 +5339,43 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
       <c r="C59" t="s">
         <v>135</v>
       </c>
       <c r="D59" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="15"/>
+      <c r="E59" s="17"/>
       <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
       <c r="D60" t="s">
         <v>141</v>
       </c>
-      <c r="E60" s="15"/>
+      <c r="E60" s="17"/>
       <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="1" t="s">
         <v>136</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="15"/>
+      <c r="E61" s="17"/>
       <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="15">
+      <c r="A62" s="17">
         <v>17</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C62" t="s">
@@ -5098,7 +5384,7 @@
       <c r="D62" t="s">
         <v>149</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="17" t="s">
         <v>153</v>
       </c>
       <c r="F62" t="s">
@@ -5112,46 +5398,46 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="15"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
       <c r="C63" t="s">
         <v>29</v>
       </c>
       <c r="D63" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="15"/>
+      <c r="E63" s="17"/>
       <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
       <c r="C64" t="s">
         <v>118</v>
       </c>
       <c r="D64" t="s">
         <v>151</v>
       </c>
-      <c r="E64" s="15"/>
+      <c r="E64" s="17"/>
       <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="15"/>
-      <c r="B65" s="15"/>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="17"/>
       <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" s="15">
+      <c r="A66" s="17">
         <v>18</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="17" t="s">
         <v>159</v>
       </c>
       <c r="C66" t="s">
@@ -5160,7 +5446,7 @@
       <c r="D66" t="s">
         <v>158</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="17" t="s">
         <v>161</v>
       </c>
       <c r="F66" t="s">
@@ -5174,34 +5460,34 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="15"/>
-      <c r="B67" s="15"/>
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
       <c r="C67" t="s">
         <v>156</v>
       </c>
       <c r="D67" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="15"/>
+      <c r="E67" s="17"/>
       <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="1" t="s">
         <v>157</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="15"/>
+      <c r="E68" s="17"/>
       <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A69" s="15">
+      <c r="A69" s="17">
         <v>19</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="17" t="s">
         <v>165</v>
       </c>
       <c r="C69" t="s">
@@ -5210,7 +5496,7 @@
       <c r="D69" t="s">
         <v>170</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="17" t="s">
         <v>171</v>
       </c>
       <c r="F69" t="s">
@@ -5224,34 +5510,34 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
       <c r="C70" t="s">
         <v>167</v>
       </c>
       <c r="D70" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="15"/>
+      <c r="E70" s="17"/>
       <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="1" t="s">
         <v>168</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="15"/>
+      <c r="E71" s="17"/>
       <c r="G71" s="16"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="15">
+      <c r="A72" s="17">
         <v>20</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="17" t="s">
         <v>179</v>
       </c>
       <c r="C72" t="s">
@@ -5260,7 +5546,7 @@
       <c r="D72" t="s">
         <v>182</v>
       </c>
-      <c r="E72" s="15" t="s">
+      <c r="E72" s="17" t="s">
         <v>184</v>
       </c>
       <c r="F72" t="s">
@@ -5274,31 +5560,31 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
       <c r="D73" t="s">
         <v>183</v>
       </c>
-      <c r="E73" s="15"/>
+      <c r="E73" s="17"/>
       <c r="G73" s="16"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E74" s="15"/>
+      <c r="E74" s="17"/>
       <c r="G74" s="16"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" s="15">
+      <c r="A75" s="17">
         <v>21</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="17" t="s">
         <v>187</v>
       </c>
       <c r="C75" t="s">
@@ -5307,7 +5593,7 @@
       <c r="D75" t="s">
         <v>190</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="17" t="s">
         <v>192</v>
       </c>
       <c r="F75" t="s">
@@ -5321,31 +5607,31 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
       <c r="D76" t="s">
         <v>191</v>
       </c>
-      <c r="E76" s="15"/>
+      <c r="E76" s="17"/>
       <c r="G76" s="16"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="1" t="s">
         <v>189</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E77" s="15"/>
+      <c r="E77" s="17"/>
       <c r="G77" s="16"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A78" s="15">
+      <c r="A78" s="17">
         <v>22</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="17" t="s">
         <v>196</v>
       </c>
       <c r="C78" t="s">
@@ -5354,7 +5640,7 @@
       <c r="D78" t="s">
         <v>206</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="17" t="s">
         <v>202</v>
       </c>
       <c r="F78" t="s">
@@ -5368,46 +5654,46 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" s="15"/>
-      <c r="B79" s="15"/>
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
       <c r="C79" t="s">
         <v>198</v>
       </c>
       <c r="D79" t="s">
         <v>200</v>
       </c>
-      <c r="E79" s="15"/>
+      <c r="E79" s="17"/>
       <c r="G79" s="16"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A80" s="15"/>
-      <c r="B80" s="15"/>
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
       <c r="C80" t="s">
         <v>199</v>
       </c>
       <c r="D80" t="s">
         <v>201</v>
       </c>
-      <c r="E80" s="15"/>
+      <c r="E80" s="17"/>
       <c r="G80" s="16"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="15"/>
-      <c r="B81" s="15"/>
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="15"/>
+      <c r="E81" s="17"/>
       <c r="G81" s="16"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A82" s="15">
+      <c r="A82" s="17">
         <v>23</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="17" t="s">
         <v>179</v>
       </c>
       <c r="C82" t="s">
@@ -5416,7 +5702,7 @@
       <c r="D82" t="s">
         <v>207</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="17" t="s">
         <v>209</v>
       </c>
       <c r="F82" t="s">
@@ -5430,31 +5716,31 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" s="15"/>
-      <c r="B83" s="15"/>
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
       <c r="D83" t="s">
         <v>208</v>
       </c>
-      <c r="E83" s="15"/>
+      <c r="E83" s="17"/>
       <c r="G83" s="16"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="15"/>
+      <c r="E84" s="17"/>
       <c r="G84" s="16"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A85" s="15">
+      <c r="A85" s="17">
         <v>24</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="17" t="s">
         <v>213</v>
       </c>
       <c r="C85" t="s">
@@ -5463,7 +5749,7 @@
       <c r="D85" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="17" t="s">
         <v>220</v>
       </c>
       <c r="F85" t="s">
@@ -5477,55 +5763,55 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A86" s="15"/>
-      <c r="B86" s="15"/>
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
       <c r="C86" t="s">
         <v>215</v>
       </c>
       <c r="D86" t="s">
         <v>219</v>
       </c>
-      <c r="E86" s="15"/>
+      <c r="E86" s="17"/>
       <c r="G86" s="16"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
       <c r="C87" t="s">
         <v>216</v>
       </c>
       <c r="D87" t="s">
         <v>218</v>
       </c>
-      <c r="E87" s="15"/>
+      <c r="E87" s="17"/>
       <c r="G87" s="16"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A88" s="15"/>
-      <c r="B88" s="15"/>
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="1" t="s">
         <v>147</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E88" s="15"/>
+      <c r="E88" s="17"/>
       <c r="G88" s="16"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A89" s="15">
+      <c r="A89" s="17">
         <v>25</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="18" t="s">
         <v>225</v>
       </c>
       <c r="D89" t="s">
         <v>227</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="17" t="s">
         <v>230</v>
       </c>
       <c r="F89" t="s">
@@ -5539,29 +5825,29 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A90" s="15"/>
-      <c r="B90" s="15"/>
-      <c r="C90" s="17"/>
-      <c r="E90" s="15"/>
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="E90" s="17"/>
       <c r="G90" s="16"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" s="15"/>
-      <c r="B91" s="15"/>
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E91" s="15"/>
+      <c r="E91" s="17"/>
       <c r="G91" s="16"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A92" s="15">
+      <c r="A92" s="17">
         <v>26</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="B92" s="17" t="s">
         <v>232</v>
       </c>
       <c r="C92" t="s">
@@ -5570,7 +5856,7 @@
       <c r="D92" t="s">
         <v>235</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="17" t="s">
         <v>240</v>
       </c>
       <c r="F92" t="s">
@@ -5584,31 +5870,31 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
       <c r="D93" t="s">
         <v>239</v>
       </c>
-      <c r="E93" s="15"/>
+      <c r="E93" s="17"/>
       <c r="G93" s="16"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="1" t="s">
         <v>234</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E94" s="15"/>
+      <c r="E94" s="17"/>
       <c r="G94" s="16"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" s="15">
+      <c r="A95" s="17">
         <v>27</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C95" t="s">
@@ -5617,7 +5903,7 @@
       <c r="D95" t="s">
         <v>250</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="17" t="s">
         <v>241</v>
       </c>
       <c r="F95" t="s">
@@ -5631,82 +5917,82 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
       <c r="C96" t="s">
         <v>243</v>
       </c>
       <c r="D96" t="s">
         <v>246</v>
       </c>
-      <c r="E96" s="15"/>
+      <c r="E96" s="17"/>
       <c r="G96" s="16"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A97" s="15"/>
-      <c r="B97" s="15"/>
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
       <c r="C97" t="s">
         <v>244</v>
       </c>
       <c r="D97" t="s">
         <v>247</v>
       </c>
-      <c r="E97" s="15"/>
+      <c r="E97" s="17"/>
       <c r="G97" s="16"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A98" s="15"/>
-      <c r="B98" s="15"/>
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
       <c r="C98" t="s">
         <v>245</v>
       </c>
       <c r="D98" t="s">
         <v>248</v>
       </c>
-      <c r="E98" s="15"/>
+      <c r="E98" s="17"/>
       <c r="G98" s="16"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A99" s="15"/>
-      <c r="B99" s="15"/>
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
       <c r="C99" t="s">
         <v>29</v>
       </c>
       <c r="D99" t="s">
         <v>249</v>
       </c>
-      <c r="E99" s="15"/>
+      <c r="E99" s="17"/>
       <c r="G99" s="16"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A100" s="15"/>
-      <c r="B100" s="15"/>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
       <c r="C100" t="s">
         <v>256</v>
       </c>
       <c r="D100" t="s">
         <v>255</v>
       </c>
-      <c r="E100" s="15"/>
+      <c r="E100" s="17"/>
       <c r="G100" s="16"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" s="15"/>
-      <c r="B101" s="15"/>
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="1" t="s">
         <v>257</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E101" s="15"/>
+      <c r="E101" s="17"/>
       <c r="G101" s="16"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A102" s="15">
+      <c r="A102" s="17">
         <v>28</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="17" t="s">
         <v>258</v>
       </c>
       <c r="C102" t="s">
@@ -5715,7 +6001,7 @@
       <c r="D102" t="s">
         <v>260</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E102" s="17" t="s">
         <v>262</v>
       </c>
       <c r="F102" t="s">
@@ -5729,31 +6015,31 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="15"/>
-      <c r="B103" s="15"/>
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
       <c r="D103" t="s">
         <v>261</v>
       </c>
-      <c r="E103" s="15"/>
+      <c r="E103" s="17"/>
       <c r="G103" s="16"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="15"/>
-      <c r="B104" s="15"/>
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="15"/>
+      <c r="E104" s="17"/>
       <c r="G104" s="16"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="15">
+      <c r="A105" s="17">
         <v>29</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B105" s="17" t="s">
         <v>266</v>
       </c>
       <c r="C105" t="s">
@@ -5762,7 +6048,7 @@
       <c r="D105" t="s">
         <v>269</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="E105" s="17" t="s">
         <v>273</v>
       </c>
       <c r="F105" t="s">
@@ -5776,49 +6062,49 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="15"/>
-      <c r="B106" s="15"/>
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
       <c r="D106" t="s">
         <v>270</v>
       </c>
-      <c r="E106" s="15"/>
+      <c r="E106" s="17"/>
       <c r="G106" s="16"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
       <c r="D107" t="s">
         <v>271</v>
       </c>
-      <c r="E107" s="15"/>
+      <c r="E107" s="17"/>
       <c r="G107" s="16"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
       <c r="D108" t="s">
         <v>272</v>
       </c>
-      <c r="E108" s="15"/>
+      <c r="E108" s="17"/>
       <c r="G108" s="16"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="15"/>
-      <c r="B109" s="15"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="1" t="s">
         <v>268</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="15"/>
+      <c r="E109" s="17"/>
       <c r="G109" s="16"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="15">
+      <c r="A110" s="17">
         <v>30</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C110" t="s">
@@ -5827,7 +6113,7 @@
       <c r="D110" t="s">
         <v>282</v>
       </c>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="17" t="s">
         <v>437</v>
       </c>
       <c r="F110" t="s">
@@ -5841,76 +6127,76 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="15"/>
-      <c r="B111" s="15"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
       <c r="C111" t="s">
         <v>276</v>
       </c>
       <c r="D111" t="s">
         <v>286</v>
       </c>
-      <c r="E111" s="15"/>
+      <c r="E111" s="17"/>
       <c r="G111" s="16"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="15"/>
-      <c r="B112" s="15"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
       <c r="C112" t="s">
         <v>277</v>
       </c>
       <c r="D112" t="s">
         <v>281</v>
       </c>
-      <c r="E112" s="15"/>
+      <c r="E112" s="17"/>
       <c r="G112" s="16"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
+      <c r="A113" s="17"/>
+      <c r="B113" s="17"/>
       <c r="C113" t="s">
         <v>278</v>
       </c>
       <c r="D113" t="s">
         <v>285</v>
       </c>
-      <c r="E113" s="15"/>
+      <c r="E113" s="17"/>
       <c r="G113" s="16"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
       <c r="C114" t="s">
         <v>215</v>
       </c>
-      <c r="E114" s="15"/>
+      <c r="E114" s="17"/>
       <c r="G114" s="16"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
+      <c r="A115" s="17"/>
+      <c r="B115" s="17"/>
       <c r="C115" t="s">
         <v>279</v>
       </c>
-      <c r="E115" s="15"/>
+      <c r="E115" s="17"/>
       <c r="G115" s="16"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="15"/>
+      <c r="E116" s="17"/>
       <c r="G116" s="16"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A117" s="15">
+      <c r="A117" s="17">
         <v>31</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="B117" s="17" t="s">
         <v>287</v>
       </c>
       <c r="C117" t="s">
@@ -5919,7 +6205,7 @@
       <c r="D117" t="s">
         <v>296</v>
       </c>
-      <c r="E117" s="15" t="s">
+      <c r="E117" s="17" t="s">
         <v>302</v>
       </c>
       <c r="F117" t="s">
@@ -5933,82 +6219,82 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A118" s="15"/>
-      <c r="B118" s="15"/>
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
       <c r="C118" t="s">
         <v>289</v>
       </c>
       <c r="D118" t="s">
         <v>297</v>
       </c>
-      <c r="E118" s="15"/>
+      <c r="E118" s="17"/>
       <c r="G118" s="16"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A119" s="15"/>
-      <c r="B119" s="15"/>
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
       <c r="C119" t="s">
         <v>290</v>
       </c>
       <c r="D119" t="s">
         <v>298</v>
       </c>
-      <c r="E119" s="15"/>
+      <c r="E119" s="17"/>
       <c r="G119" s="16"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A120" s="15"/>
-      <c r="B120" s="15"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
       <c r="C120" t="s">
         <v>291</v>
       </c>
-      <c r="E120" s="15"/>
+      <c r="E120" s="17"/>
       <c r="G120" s="16"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" s="15"/>
-      <c r="B121" s="15"/>
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
       <c r="C121" t="s">
         <v>292</v>
       </c>
-      <c r="E121" s="15"/>
+      <c r="E121" s="17"/>
       <c r="G121" s="16"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A122" s="15"/>
-      <c r="B122" s="15"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
       <c r="C122" t="s">
         <v>293</v>
       </c>
-      <c r="E122" s="15"/>
+      <c r="E122" s="17"/>
       <c r="G122" s="16"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A123" s="15"/>
-      <c r="B123" s="15"/>
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
       <c r="C123" t="s">
         <v>294</v>
       </c>
-      <c r="E123" s="15"/>
+      <c r="E123" s="17"/>
       <c r="G123" s="16"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A124" s="15"/>
-      <c r="B124" s="15"/>
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E124" s="15"/>
+      <c r="E124" s="17"/>
       <c r="G124" s="16"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A125" s="15">
+      <c r="A125" s="17">
         <v>32</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="17" t="s">
         <v>309</v>
       </c>
       <c r="C125" t="s">
@@ -6017,7 +6303,7 @@
       <c r="D125" t="s">
         <v>304</v>
       </c>
-      <c r="E125" s="15" t="s">
+      <c r="E125" s="17" t="s">
         <v>306</v>
       </c>
       <c r="F125" t="s">
@@ -6031,31 +6317,31 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A126" s="15"/>
-      <c r="B126" s="15"/>
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
       <c r="D126" t="s">
         <v>305</v>
       </c>
-      <c r="E126" s="15"/>
+      <c r="E126" s="17"/>
       <c r="G126" s="16"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A127" s="15"/>
-      <c r="B127" s="15"/>
+      <c r="A127" s="17"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E127" s="15"/>
+      <c r="E127" s="17"/>
       <c r="G127" s="16"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A128" s="15">
+      <c r="A128" s="17">
         <v>33</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="17" t="s">
         <v>310</v>
       </c>
       <c r="C128" t="s">
@@ -6064,7 +6350,7 @@
       <c r="D128" t="s">
         <v>313</v>
       </c>
-      <c r="E128" s="15" t="s">
+      <c r="E128" s="17" t="s">
         <v>314</v>
       </c>
       <c r="F128" t="s">
@@ -6078,40 +6364,40 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A129" s="15"/>
-      <c r="B129" s="15"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="17"/>
       <c r="C129" t="s">
         <v>312</v>
       </c>
-      <c r="E129" s="15"/>
+      <c r="E129" s="17"/>
       <c r="G129" s="16"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A130" s="15"/>
-      <c r="B130" s="15"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="17"/>
       <c r="C130" t="s">
         <v>49</v>
       </c>
-      <c r="E130" s="15"/>
+      <c r="E130" s="17"/>
       <c r="G130" s="16"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A131" s="15"/>
-      <c r="B131" s="15"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E131" s="15"/>
+      <c r="E131" s="17"/>
       <c r="G131" s="16"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A132" s="15">
+      <c r="A132" s="17">
         <v>34</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="17" t="s">
         <v>317</v>
       </c>
       <c r="C132" t="s">
@@ -6120,7 +6406,7 @@
       <c r="D132" t="s">
         <v>326</v>
       </c>
-      <c r="E132" s="15" t="s">
+      <c r="E132" s="17" t="s">
         <v>321</v>
       </c>
       <c r="F132" t="s">
@@ -6134,34 +6420,34 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
+      <c r="A133" s="17"/>
+      <c r="B133" s="17"/>
       <c r="C133" t="s">
         <v>319</v>
       </c>
       <c r="D133" t="s">
         <v>325</v>
       </c>
-      <c r="E133" s="15"/>
+      <c r="E133" s="17"/>
       <c r="G133" s="16"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
+      <c r="A134" s="17"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="1" t="s">
         <v>320</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E134" s="15"/>
+      <c r="E134" s="17"/>
       <c r="G134" s="16"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A135" s="15">
+      <c r="A135" s="17">
         <v>35</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="17" t="s">
         <v>328</v>
       </c>
       <c r="C135" t="s">
@@ -6170,7 +6456,7 @@
       <c r="D135" t="s">
         <v>331</v>
       </c>
-      <c r="E135" s="15" t="s">
+      <c r="E135" s="17" t="s">
         <v>334</v>
       </c>
       <c r="F135" t="s">
@@ -6182,34 +6468,34 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A136" s="15"/>
-      <c r="B136" s="15"/>
+      <c r="A136" s="17"/>
+      <c r="B136" s="17"/>
       <c r="C136" t="s">
         <v>49</v>
       </c>
       <c r="D136" t="s">
         <v>330</v>
       </c>
-      <c r="E136" s="15"/>
+      <c r="E136" s="17"/>
       <c r="G136" s="16"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A137" s="15"/>
-      <c r="B137" s="15"/>
+      <c r="A137" s="17"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E137" s="15"/>
+      <c r="E137" s="17"/>
       <c r="G137" s="16"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A138" s="15">
+      <c r="A138" s="17">
         <v>36</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="17" t="s">
         <v>335</v>
       </c>
       <c r="C138" t="s">
@@ -6218,7 +6504,7 @@
       <c r="D138" t="s">
         <v>340</v>
       </c>
-      <c r="E138" s="15" t="s">
+      <c r="E138" s="17" t="s">
         <v>335</v>
       </c>
       <c r="F138" t="s">
@@ -6232,22 +6518,22 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A139" s="15"/>
-      <c r="B139" s="15"/>
+      <c r="A139" s="17"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E139" s="15"/>
+      <c r="E139" s="17"/>
       <c r="G139" s="16"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A140" s="15">
+      <c r="A140" s="17">
         <v>37</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="17" t="s">
         <v>341</v>
       </c>
       <c r="C140" t="s">
@@ -6256,7 +6542,7 @@
       <c r="D140" t="s">
         <v>342</v>
       </c>
-      <c r="E140" s="15" t="s">
+      <c r="E140" s="17" t="s">
         <v>349</v>
       </c>
       <c r="F140" t="s">
@@ -6270,52 +6556,52 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="14.25" x14ac:dyDescent="0.4">
-      <c r="A141" s="15"/>
-      <c r="B141" s="15"/>
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
       <c r="D141" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="E141" s="15"/>
+      <c r="E141" s="17"/>
       <c r="G141" s="16"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A142" s="15"/>
-      <c r="B142" s="15"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="17"/>
       <c r="D142" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="E142" s="15"/>
+      <c r="E142" s="17"/>
       <c r="G142" s="16"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A143" s="15"/>
-      <c r="B143" s="15"/>
+      <c r="A143" s="17"/>
+      <c r="B143" s="17"/>
       <c r="C143" t="s">
         <v>347</v>
       </c>
       <c r="D143" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E143" s="15"/>
+      <c r="E143" s="17"/>
       <c r="G143" s="16"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A144" s="15"/>
-      <c r="B144" s="15"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
       <c r="C144" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E144" s="15"/>
+      <c r="E144" s="17"/>
       <c r="G144" s="16"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A145" s="15">
+      <c r="A145" s="17">
         <v>38</v>
       </c>
-      <c r="B145" s="15" t="s">
+      <c r="B145" s="17" t="s">
         <v>352</v>
       </c>
       <c r="C145" t="s">
@@ -6324,7 +6610,7 @@
       <c r="D145" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="E145" s="15" t="s">
+      <c r="E145" s="17" t="s">
         <v>359</v>
       </c>
       <c r="F145" t="s">
@@ -6338,34 +6624,34 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A146" s="15"/>
-      <c r="B146" s="15"/>
+      <c r="A146" s="17"/>
+      <c r="B146" s="17"/>
       <c r="C146" t="s">
         <v>354</v>
       </c>
       <c r="D146" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="E146" s="15"/>
+      <c r="E146" s="17"/>
       <c r="G146" s="16"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A147" s="15"/>
-      <c r="B147" s="15"/>
+      <c r="A147" s="17"/>
+      <c r="B147" s="17"/>
       <c r="C147" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E147" s="15"/>
+      <c r="E147" s="17"/>
       <c r="G147" s="16"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A148" s="15">
+      <c r="A148" s="17">
         <v>39</v>
       </c>
-      <c r="B148" s="15" t="s">
+      <c r="B148" s="17" t="s">
         <v>360</v>
       </c>
       <c r="C148" t="s">
@@ -6374,7 +6660,7 @@
       <c r="D148" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="E148" s="15" t="s">
+      <c r="E148" s="17" t="s">
         <v>364</v>
       </c>
       <c r="F148" t="s">
@@ -6388,22 +6674,22 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A149" s="15"/>
-      <c r="B149" s="15"/>
+      <c r="A149" s="17"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="1" t="s">
         <v>362</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E149" s="15"/>
+      <c r="E149" s="17"/>
       <c r="G149" s="16"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A150" s="15">
+      <c r="A150" s="17">
         <v>40</v>
       </c>
-      <c r="B150" s="15" t="s">
+      <c r="B150" s="17" t="s">
         <v>368</v>
       </c>
       <c r="C150" t="s">
@@ -6412,7 +6698,7 @@
       <c r="D150" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="E150" s="15" t="s">
+      <c r="E150" s="17" t="s">
         <v>377</v>
       </c>
       <c r="F150" t="s">
@@ -6426,34 +6712,34 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A151" s="15"/>
-      <c r="B151" s="15"/>
+      <c r="A151" s="17"/>
+      <c r="B151" s="17"/>
       <c r="C151" t="s">
         <v>370</v>
       </c>
       <c r="D151" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="E151" s="15"/>
+      <c r="E151" s="17"/>
       <c r="G151" s="16"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A152" s="15"/>
-      <c r="B152" s="15"/>
+      <c r="A152" s="17"/>
+      <c r="B152" s="17"/>
       <c r="C152" s="1" t="s">
         <v>371</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E152" s="15"/>
+      <c r="E152" s="17"/>
       <c r="G152" s="16"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A153" s="15">
+      <c r="A153" s="17">
         <v>41</v>
       </c>
-      <c r="B153" s="15" t="s">
+      <c r="B153" s="17" t="s">
         <v>378</v>
       </c>
       <c r="C153" t="s">
@@ -6462,7 +6748,7 @@
       <c r="D153" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="E153" s="15" t="s">
+      <c r="E153" s="17" t="s">
         <v>385</v>
       </c>
       <c r="F153" t="s">
@@ -6476,43 +6762,43 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
+      <c r="A154" s="17"/>
+      <c r="B154" s="17"/>
       <c r="C154" t="s">
         <v>380</v>
       </c>
       <c r="D154" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="E154" s="15"/>
+      <c r="E154" s="17"/>
       <c r="G154" s="16"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
+      <c r="A155" s="17"/>
+      <c r="B155" s="17"/>
       <c r="D155" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="E155" s="15"/>
+      <c r="E155" s="17"/>
       <c r="G155" s="16"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A156" s="15"/>
-      <c r="B156" s="15"/>
+      <c r="A156" s="17"/>
+      <c r="B156" s="17"/>
       <c r="C156" s="1" t="s">
         <v>381</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E156" s="15"/>
+      <c r="E156" s="17"/>
       <c r="G156" s="16"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A157" s="15">
+      <c r="A157" s="17">
         <v>42</v>
       </c>
-      <c r="B157" s="15" t="s">
+      <c r="B157" s="17" t="s">
         <v>392</v>
       </c>
       <c r="C157" t="s">
@@ -6521,7 +6807,7 @@
       <c r="D157" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="E157" s="15" t="s">
+      <c r="E157" s="17" t="s">
         <v>389</v>
       </c>
       <c r="F157" t="s">
@@ -6532,22 +6818,22 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
+      <c r="A158" s="17"/>
+      <c r="B158" s="17"/>
       <c r="C158" s="1" t="s">
         <v>381</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E158" s="15"/>
+      <c r="E158" s="17"/>
       <c r="G158" s="16"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A159" s="15">
+      <c r="A159" s="17">
         <v>43</v>
       </c>
-      <c r="B159" s="15" t="s">
+      <c r="B159" s="17" t="s">
         <v>393</v>
       </c>
       <c r="C159" t="s">
@@ -6556,7 +6842,7 @@
       <c r="D159" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="E159" s="17" t="s">
         <v>394</v>
       </c>
       <c r="F159" t="s">
@@ -6567,34 +6853,34 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A160" s="15"/>
-      <c r="B160" s="15"/>
+      <c r="A160" s="17"/>
+      <c r="B160" s="17"/>
       <c r="C160" t="s">
         <v>29</v>
       </c>
       <c r="D160" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="E160" s="15"/>
+      <c r="E160" s="17"/>
       <c r="G160" s="16"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A161" s="15"/>
-      <c r="B161" s="15"/>
+      <c r="A161" s="17"/>
+      <c r="B161" s="17"/>
       <c r="C161" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E161" s="15"/>
+      <c r="E161" s="17"/>
       <c r="G161" s="16"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A162" s="15">
+      <c r="A162" s="17">
         <v>44</v>
       </c>
-      <c r="B162" s="15" t="s">
+      <c r="B162" s="17" t="s">
         <v>402</v>
       </c>
       <c r="C162" t="s">
@@ -6603,7 +6889,7 @@
       <c r="D162" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="E162" s="15" t="s">
+      <c r="E162" s="17" t="s">
         <v>406</v>
       </c>
       <c r="F162" t="s">
@@ -6617,34 +6903,34 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A163" s="15"/>
-      <c r="B163" s="15"/>
+      <c r="A163" s="17"/>
+      <c r="B163" s="17"/>
       <c r="C163" t="s">
         <v>49</v>
       </c>
       <c r="D163" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E163" s="15"/>
+      <c r="E163" s="17"/>
       <c r="G163" s="16"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A164" s="15"/>
-      <c r="B164" s="15"/>
+      <c r="A164" s="17"/>
+      <c r="B164" s="17"/>
       <c r="C164" s="1" t="s">
         <v>404</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="15"/>
+      <c r="E164" s="17"/>
       <c r="G164" s="16"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A165" s="15">
+      <c r="A165" s="17">
         <v>45</v>
       </c>
-      <c r="B165" s="15" t="s">
+      <c r="B165" s="17" t="s">
         <v>409</v>
       </c>
       <c r="C165" t="s">
@@ -6653,7 +6939,7 @@
       <c r="D165" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="E165" s="15" t="s">
+      <c r="E165" s="17" t="s">
         <v>414</v>
       </c>
       <c r="F165" t="s">
@@ -6664,34 +6950,34 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A166" s="15"/>
-      <c r="B166" s="15"/>
+      <c r="A166" s="17"/>
+      <c r="B166" s="17"/>
       <c r="C166" t="s">
         <v>411</v>
       </c>
       <c r="D166" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="E166" s="15"/>
+      <c r="E166" s="17"/>
       <c r="G166" s="16"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A167" s="15"/>
-      <c r="B167" s="15"/>
+      <c r="A167" s="17"/>
+      <c r="B167" s="17"/>
       <c r="C167" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E167" s="15"/>
+      <c r="E167" s="17"/>
       <c r="G167" s="16"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A168" s="15">
+      <c r="A168" s="17">
         <v>46</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="17" t="s">
         <v>416</v>
       </c>
       <c r="C168" t="s">
@@ -6700,7 +6986,7 @@
       <c r="D168" t="s">
         <v>421</v>
       </c>
-      <c r="E168" s="15" t="s">
+      <c r="E168" s="17" t="s">
         <v>426</v>
       </c>
       <c r="F168" t="s">
@@ -6714,43 +7000,43 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A169" s="15"/>
-      <c r="B169" s="15"/>
+      <c r="A169" s="17"/>
+      <c r="B169" s="17"/>
       <c r="C169" t="s">
         <v>418</v>
       </c>
       <c r="D169" t="s">
         <v>420</v>
       </c>
-      <c r="E169" s="15"/>
+      <c r="E169" s="17"/>
       <c r="G169" s="16"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A170" s="15"/>
-      <c r="B170" s="15"/>
+      <c r="A170" s="17"/>
+      <c r="B170" s="17"/>
       <c r="C170" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D170" t="s">
         <v>422</v>
       </c>
-      <c r="E170" s="15"/>
+      <c r="E170" s="17"/>
       <c r="G170" s="16"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A171" s="15"/>
-      <c r="B171" s="15"/>
+      <c r="A171" s="17"/>
+      <c r="B171" s="17"/>
       <c r="D171" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E171" s="15"/>
+      <c r="E171" s="17"/>
       <c r="G171" s="16"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A172" s="15">
+      <c r="A172" s="17">
         <v>47</v>
       </c>
-      <c r="B172" s="15" t="s">
+      <c r="B172" s="17" t="s">
         <v>427</v>
       </c>
       <c r="C172" t="s">
@@ -6759,7 +7045,7 @@
       <c r="D172" t="s">
         <v>431</v>
       </c>
-      <c r="E172" s="15" t="s">
+      <c r="E172" s="17" t="s">
         <v>433</v>
       </c>
       <c r="F172" t="s">
@@ -6773,37 +7059,37 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A173" s="15"/>
-      <c r="B173" s="15"/>
+      <c r="A173" s="17"/>
+      <c r="B173" s="17"/>
       <c r="C173" t="s">
         <v>429</v>
       </c>
       <c r="D173" t="s">
         <v>432</v>
       </c>
-      <c r="E173" s="15"/>
+      <c r="E173" s="17"/>
       <c r="F173" t="s">
         <v>435</v>
       </c>
       <c r="G173" s="16"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A174" s="15"/>
-      <c r="B174" s="15"/>
+      <c r="A174" s="17"/>
+      <c r="B174" s="17"/>
       <c r="C174" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E174" s="15"/>
+      <c r="E174" s="17"/>
       <c r="G174" s="16"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A175" s="15">
+      <c r="A175" s="17">
         <v>48</v>
       </c>
-      <c r="B175" s="15" t="s">
+      <c r="B175" s="17" t="s">
         <v>439</v>
       </c>
       <c r="C175" t="s">
@@ -6812,7 +7098,7 @@
       <c r="D175" t="s">
         <v>443</v>
       </c>
-      <c r="E175" s="15" t="s">
+      <c r="E175" s="17" t="s">
         <v>446</v>
       </c>
       <c r="F175" t="s">
@@ -6826,46 +7112,46 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A176" s="15"/>
-      <c r="B176" s="15"/>
+      <c r="A176" s="17"/>
+      <c r="B176" s="17"/>
       <c r="C176" t="s">
         <v>441</v>
       </c>
       <c r="D176" t="s">
         <v>444</v>
       </c>
-      <c r="E176" s="15"/>
+      <c r="E176" s="17"/>
       <c r="F176" t="s">
         <v>449</v>
       </c>
       <c r="G176" s="16"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A177" s="15"/>
-      <c r="B177" s="15"/>
+      <c r="A177" s="17"/>
+      <c r="B177" s="17"/>
       <c r="D177" t="s">
         <v>447</v>
       </c>
-      <c r="E177" s="15"/>
+      <c r="E177" s="17"/>
       <c r="G177" s="16"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A178" s="15"/>
-      <c r="B178" s="15"/>
+      <c r="A178" s="17"/>
+      <c r="B178" s="17"/>
       <c r="C178" s="1" t="s">
         <v>442</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E178" s="15"/>
+      <c r="E178" s="17"/>
       <c r="G178" s="16"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A179" s="15">
+      <c r="A179" s="17">
         <v>49</v>
       </c>
-      <c r="B179" s="15" t="s">
+      <c r="B179" s="17" t="s">
         <v>460</v>
       </c>
       <c r="C179" t="s">
@@ -6874,7 +7160,7 @@
       <c r="D179" t="s">
         <v>456</v>
       </c>
-      <c r="E179" s="15" t="s">
+      <c r="E179" s="17" t="s">
         <v>455</v>
       </c>
       <c r="F179" t="s">
@@ -6888,64 +7174,64 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A180" s="15"/>
-      <c r="B180" s="15"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="17"/>
       <c r="C180" t="s">
         <v>451</v>
       </c>
       <c r="D180" t="s">
         <v>457</v>
       </c>
-      <c r="E180" s="15"/>
+      <c r="E180" s="17"/>
       <c r="F180" t="s">
         <v>464</v>
       </c>
       <c r="G180" s="16"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A181" s="15"/>
-      <c r="B181" s="15"/>
+      <c r="A181" s="17"/>
+      <c r="B181" s="17"/>
       <c r="C181" t="s">
         <v>453</v>
       </c>
       <c r="D181" t="s">
         <v>458</v>
       </c>
-      <c r="E181" s="15"/>
+      <c r="E181" s="17"/>
       <c r="F181" t="s">
         <v>463</v>
       </c>
       <c r="G181" s="16"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A182" s="15"/>
-      <c r="B182" s="15"/>
+      <c r="A182" s="17"/>
+      <c r="B182" s="17"/>
       <c r="C182" t="s">
         <v>49</v>
       </c>
       <c r="D182" t="s">
         <v>459</v>
       </c>
-      <c r="E182" s="15"/>
+      <c r="E182" s="17"/>
       <c r="G182" s="16"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A183" s="15"/>
-      <c r="B183" s="15"/>
+      <c r="A183" s="17"/>
+      <c r="B183" s="17"/>
       <c r="C183" s="1" t="s">
         <v>454</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E183" s="15"/>
+      <c r="E183" s="17"/>
       <c r="G183" s="16"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A184" s="15">
+      <c r="A184" s="17">
         <v>50</v>
       </c>
-      <c r="B184" s="15" t="s">
+      <c r="B184" s="17" t="s">
         <v>465</v>
       </c>
       <c r="C184" t="s">
@@ -6954,7 +7240,7 @@
       <c r="D184" t="s">
         <v>468</v>
       </c>
-      <c r="E184" s="15" t="s">
+      <c r="E184" s="17" t="s">
         <v>472</v>
       </c>
       <c r="F184" t="s">
@@ -6968,34 +7254,34 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A185" s="15"/>
-      <c r="B185" s="15"/>
+      <c r="A185" s="17"/>
+      <c r="B185" s="17"/>
       <c r="C185" t="s">
         <v>466</v>
       </c>
       <c r="D185" t="s">
         <v>469</v>
       </c>
-      <c r="E185" s="15"/>
+      <c r="E185" s="17"/>
       <c r="G185" s="16"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A186" s="15"/>
-      <c r="B186" s="15"/>
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
       <c r="C186" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E186" s="15"/>
+      <c r="E186" s="17"/>
       <c r="G186" s="16"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A187" s="15">
+      <c r="A187" s="17">
         <v>51</v>
       </c>
-      <c r="B187" s="15" t="s">
+      <c r="B187" s="17" t="s">
         <v>475</v>
       </c>
       <c r="C187" t="s">
@@ -7004,7 +7290,7 @@
       <c r="D187" t="s">
         <v>480</v>
       </c>
-      <c r="E187" s="15" t="s">
+      <c r="E187" s="17" t="s">
         <v>477</v>
       </c>
       <c r="F187" t="s">
@@ -7015,29 +7301,29 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A188" s="15"/>
-      <c r="B188" s="15"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="17"/>
       <c r="D188" t="s">
         <v>481</v>
       </c>
-      <c r="E188" s="15"/>
+      <c r="E188" s="17"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A189" s="15"/>
-      <c r="B189" s="15"/>
+      <c r="A189" s="17"/>
+      <c r="B189" s="17"/>
       <c r="C189" s="1" t="s">
         <v>467</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E189" s="15"/>
+      <c r="E189" s="17"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A190" s="15">
+      <c r="A190" s="17">
         <v>52</v>
       </c>
-      <c r="B190" s="15" t="s">
+      <c r="B190" s="17" t="s">
         <v>482</v>
       </c>
       <c r="C190" t="s">
@@ -7046,7 +7332,7 @@
       <c r="D190" t="s">
         <v>489</v>
       </c>
-      <c r="E190" s="15" t="s">
+      <c r="E190" s="17" t="s">
         <v>486</v>
       </c>
       <c r="F190" t="s">
@@ -7060,34 +7346,34 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A191" s="15"/>
-      <c r="B191" s="15"/>
+      <c r="A191" s="17"/>
+      <c r="B191" s="17"/>
       <c r="C191" t="s">
         <v>484</v>
       </c>
       <c r="D191" t="s">
         <v>485</v>
       </c>
-      <c r="E191" s="15"/>
+      <c r="E191" s="17"/>
       <c r="G191" s="16"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A192" s="15"/>
-      <c r="B192" s="15"/>
+      <c r="A192" s="17"/>
+      <c r="B192" s="17"/>
       <c r="C192" s="1" t="s">
         <v>362</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E192" s="15"/>
+      <c r="E192" s="17"/>
       <c r="G192" s="16"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A193" s="15">
+      <c r="A193" s="17">
         <v>53</v>
       </c>
-      <c r="B193" s="15" t="s">
+      <c r="B193" s="17" t="s">
         <v>490</v>
       </c>
       <c r="C193" t="s">
@@ -7096,7 +7382,7 @@
       <c r="D193" t="s">
         <v>495</v>
       </c>
-      <c r="E193" s="15" t="s">
+      <c r="E193" s="17" t="s">
         <v>491</v>
       </c>
       <c r="F193" t="s">
@@ -7110,34 +7396,34 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A194" s="15"/>
-      <c r="B194" s="15"/>
+      <c r="A194" s="17"/>
+      <c r="B194" s="17"/>
       <c r="C194" t="s">
         <v>493</v>
       </c>
       <c r="D194" t="s">
         <v>496</v>
       </c>
-      <c r="E194" s="15"/>
+      <c r="E194" s="17"/>
       <c r="G194" s="16"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A195" s="15"/>
-      <c r="B195" s="15"/>
+      <c r="A195" s="17"/>
+      <c r="B195" s="17"/>
       <c r="C195" s="1" t="s">
         <v>494</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E195" s="15"/>
+      <c r="E195" s="17"/>
       <c r="G195" s="16"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A196" s="15">
+      <c r="A196" s="17">
         <v>54</v>
       </c>
-      <c r="B196" s="15" t="s">
+      <c r="B196" s="17" t="s">
         <v>500</v>
       </c>
       <c r="C196" t="s">
@@ -7146,7 +7432,7 @@
       <c r="D196" t="s">
         <v>503</v>
       </c>
-      <c r="E196" s="15" t="s">
+      <c r="E196" s="17" t="s">
         <v>696</v>
       </c>
       <c r="F196" t="s">
@@ -7160,34 +7446,34 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A197" s="15"/>
-      <c r="B197" s="15"/>
+      <c r="A197" s="17"/>
+      <c r="B197" s="17"/>
       <c r="D197" t="s">
         <v>502</v>
       </c>
-      <c r="E197" s="15"/>
+      <c r="E197" s="17"/>
       <c r="F197" t="s">
         <v>697</v>
       </c>
       <c r="G197" s="16"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A198" s="15"/>
-      <c r="B198" s="15"/>
+      <c r="A198" s="17"/>
+      <c r="B198" s="17"/>
       <c r="C198" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E198" s="15"/>
+      <c r="E198" s="17"/>
       <c r="G198" s="16"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A199" s="15">
+      <c r="A199" s="17">
         <v>55</v>
       </c>
-      <c r="B199" s="15" t="s">
+      <c r="B199" s="17" t="s">
         <v>506</v>
       </c>
       <c r="C199" t="s">
@@ -7196,7 +7482,7 @@
       <c r="D199" t="s">
         <v>509</v>
       </c>
-      <c r="E199" s="15" t="s">
+      <c r="E199" s="17" t="s">
         <v>511</v>
       </c>
       <c r="F199" t="s">
@@ -7210,31 +7496,31 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A200" s="15"/>
-      <c r="B200" s="15"/>
+      <c r="A200" s="17"/>
+      <c r="B200" s="17"/>
       <c r="D200" t="s">
         <v>510</v>
       </c>
-      <c r="E200" s="15"/>
+      <c r="E200" s="17"/>
       <c r="G200" s="16"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A201" s="15"/>
-      <c r="B201" s="15"/>
+      <c r="A201" s="17"/>
+      <c r="B201" s="17"/>
       <c r="C201" s="1" t="s">
         <v>508</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E201" s="15"/>
+      <c r="E201" s="17"/>
       <c r="G201" s="16"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A202" s="15">
+      <c r="A202" s="17">
         <v>56</v>
       </c>
-      <c r="B202" s="15" t="s">
+      <c r="B202" s="17" t="s">
         <v>515</v>
       </c>
       <c r="C202" t="s">
@@ -7243,7 +7529,7 @@
       <c r="D202" t="s">
         <v>520</v>
       </c>
-      <c r="E202" s="15" t="s">
+      <c r="E202" s="17" t="s">
         <v>516</v>
       </c>
       <c r="F202" t="s">
@@ -7257,31 +7543,31 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A203" s="15"/>
-      <c r="B203" s="15"/>
+      <c r="A203" s="17"/>
+      <c r="B203" s="17"/>
       <c r="D203" t="s">
         <v>519</v>
       </c>
-      <c r="E203" s="15"/>
+      <c r="E203" s="17"/>
       <c r="G203" s="16"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A204" s="15"/>
-      <c r="B204" s="15"/>
+      <c r="A204" s="17"/>
+      <c r="B204" s="17"/>
       <c r="C204" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E204" s="15"/>
+      <c r="E204" s="17"/>
       <c r="G204" s="16"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A205" s="15">
+      <c r="A205" s="17">
         <v>57</v>
       </c>
-      <c r="B205" s="15" t="s">
+      <c r="B205" s="17" t="s">
         <v>522</v>
       </c>
       <c r="C205" t="s">
@@ -7290,7 +7576,7 @@
       <c r="D205" t="s">
         <v>528</v>
       </c>
-      <c r="E205" s="15" t="s">
+      <c r="E205" s="17" t="s">
         <v>523</v>
       </c>
       <c r="F205" t="s">
@@ -7301,46 +7587,46 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A206" s="15"/>
-      <c r="B206" s="15"/>
+      <c r="A206" s="17"/>
+      <c r="B206" s="17"/>
       <c r="C206" t="s">
         <v>526</v>
       </c>
       <c r="D206" t="s">
         <v>529</v>
       </c>
-      <c r="E206" s="15"/>
+      <c r="E206" s="17"/>
       <c r="G206" s="16"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A207" s="15"/>
-      <c r="B207" s="15"/>
+      <c r="A207" s="17"/>
+      <c r="B207" s="17"/>
       <c r="C207" t="s">
         <v>527</v>
       </c>
       <c r="D207" t="s">
         <v>530</v>
       </c>
-      <c r="E207" s="15"/>
+      <c r="E207" s="17"/>
       <c r="G207" s="16"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A208" s="15"/>
-      <c r="B208" s="15"/>
+      <c r="A208" s="17"/>
+      <c r="B208" s="17"/>
       <c r="C208" s="1" t="s">
         <v>524</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E208" s="15"/>
+      <c r="E208" s="17"/>
       <c r="G208" s="16"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A209" s="15">
+      <c r="A209" s="17">
         <v>58</v>
       </c>
-      <c r="B209" s="15" t="s">
+      <c r="B209" s="17" t="s">
         <v>532</v>
       </c>
       <c r="C209" t="s">
@@ -7349,7 +7635,7 @@
       <c r="D209" t="s">
         <v>536</v>
       </c>
-      <c r="E209" s="15" t="s">
+      <c r="E209" s="17" t="s">
         <v>534</v>
       </c>
       <c r="F209" t="s">
@@ -7360,31 +7646,31 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A210" s="15"/>
-      <c r="B210" s="15"/>
+      <c r="A210" s="17"/>
+      <c r="B210" s="17"/>
       <c r="D210" t="s">
         <v>535</v>
       </c>
-      <c r="E210" s="15"/>
+      <c r="E210" s="17"/>
       <c r="G210" s="16"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A211" s="15"/>
-      <c r="B211" s="15"/>
+      <c r="A211" s="17"/>
+      <c r="B211" s="17"/>
       <c r="C211" s="1" t="s">
         <v>524</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E211" s="15"/>
+      <c r="E211" s="17"/>
       <c r="G211" s="16"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A212" s="15">
+      <c r="A212" s="17">
         <v>59</v>
       </c>
-      <c r="B212" s="15" t="s">
+      <c r="B212" s="17" t="s">
         <v>539</v>
       </c>
       <c r="C212" t="s">
@@ -7393,7 +7679,7 @@
       <c r="D212" t="s">
         <v>543</v>
       </c>
-      <c r="E212" s="15" t="s">
+      <c r="E212" s="17" t="s">
         <v>546</v>
       </c>
       <c r="F212" t="s">
@@ -7407,46 +7693,46 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A213" s="15"/>
-      <c r="B213" s="15"/>
+      <c r="A213" s="17"/>
+      <c r="B213" s="17"/>
       <c r="C213" t="s">
         <v>541</v>
       </c>
       <c r="D213" t="s">
         <v>544</v>
       </c>
-      <c r="E213" s="15"/>
+      <c r="E213" s="17"/>
       <c r="G213" s="16"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A214" s="15"/>
-      <c r="B214" s="15"/>
+      <c r="A214" s="17"/>
+      <c r="B214" s="17"/>
       <c r="C214" t="s">
         <v>542</v>
       </c>
       <c r="D214" t="s">
         <v>545</v>
       </c>
-      <c r="E214" s="15"/>
+      <c r="E214" s="17"/>
       <c r="G214" s="16"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A215" s="15"/>
-      <c r="B215" s="15"/>
+      <c r="A215" s="17"/>
+      <c r="B215" s="17"/>
       <c r="C215" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E215" s="15"/>
+      <c r="E215" s="17"/>
       <c r="G215" s="16"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A216" s="15">
+      <c r="A216" s="17">
         <v>60</v>
       </c>
-      <c r="B216" s="15" t="s">
+      <c r="B216" s="17" t="s">
         <v>550</v>
       </c>
       <c r="C216" t="s">
@@ -7455,57 +7741,57 @@
       <c r="D216" t="s">
         <v>555</v>
       </c>
-      <c r="E216" s="15" t="s">
+      <c r="E216" s="17" t="s">
         <v>558</v>
       </c>
       <c r="F216" t="s">
         <v>559</v>
       </c>
-      <c r="G216" s="15" t="s">
+      <c r="G216" s="17" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A217" s="15"/>
-      <c r="B217" s="15"/>
+      <c r="A217" s="17"/>
+      <c r="B217" s="17"/>
       <c r="C217" t="s">
         <v>552</v>
       </c>
       <c r="D217" t="s">
         <v>556</v>
       </c>
-      <c r="E217" s="15"/>
-      <c r="G217" s="15"/>
+      <c r="E217" s="17"/>
+      <c r="G217" s="17"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A218" s="15"/>
-      <c r="B218" s="15"/>
+      <c r="A218" s="17"/>
+      <c r="B218" s="17"/>
       <c r="C218" t="s">
         <v>553</v>
       </c>
       <c r="D218" t="s">
         <v>557</v>
       </c>
-      <c r="E218" s="15"/>
-      <c r="G218" s="15"/>
+      <c r="E218" s="17"/>
+      <c r="G218" s="17"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A219" s="15"/>
-      <c r="B219" s="15"/>
+      <c r="A219" s="17"/>
+      <c r="B219" s="17"/>
       <c r="C219" s="1" t="s">
         <v>554</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E219" s="15"/>
-      <c r="G219" s="15"/>
+      <c r="E219" s="17"/>
+      <c r="G219" s="17"/>
     </row>
     <row r="220" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="15">
+      <c r="A220" s="17">
         <v>61</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="17" t="s">
         <v>561</v>
       </c>
       <c r="C220" t="s">
@@ -7514,13 +7800,13 @@
       <c r="D220" t="s">
         <v>567</v>
       </c>
-      <c r="E220" s="15" t="s">
+      <c r="E220" s="17" t="s">
         <v>570</v>
       </c>
       <c r="F220" t="s">
         <v>572</v>
       </c>
-      <c r="G220" s="15" t="s">
+      <c r="G220" s="17" t="s">
         <v>573</v>
       </c>
       <c r="H220" t="s">
@@ -7528,58 +7814,58 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A221" s="15"/>
-      <c r="B221" s="15"/>
+      <c r="A221" s="17"/>
+      <c r="B221" s="17"/>
       <c r="C221" t="s">
         <v>564</v>
       </c>
       <c r="D221" t="s">
         <v>568</v>
       </c>
-      <c r="E221" s="15"/>
-      <c r="G221" s="15"/>
+      <c r="E221" s="17"/>
+      <c r="G221" s="17"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A222" s="15"/>
-      <c r="B222" s="15"/>
+      <c r="A222" s="17"/>
+      <c r="B222" s="17"/>
       <c r="C222" t="s">
         <v>562</v>
       </c>
       <c r="D222" t="s">
         <v>569</v>
       </c>
-      <c r="E222" s="15"/>
-      <c r="G222" s="15"/>
+      <c r="E222" s="17"/>
+      <c r="G222" s="17"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A223" s="15"/>
-      <c r="B223" s="15"/>
+      <c r="A223" s="17"/>
+      <c r="B223" s="17"/>
       <c r="C223" t="s">
         <v>565</v>
       </c>
       <c r="D223" t="s">
         <v>571</v>
       </c>
-      <c r="E223" s="15"/>
-      <c r="G223" s="15"/>
+      <c r="E223" s="17"/>
+      <c r="G223" s="17"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A224" s="15"/>
-      <c r="B224" s="15"/>
+      <c r="A224" s="17"/>
+      <c r="B224" s="17"/>
       <c r="C224" s="1" t="s">
         <v>566</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E224" s="15"/>
-      <c r="G224" s="15"/>
+      <c r="E224" s="17"/>
+      <c r="G224" s="17"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A225" s="15">
+      <c r="A225" s="17">
         <v>62</v>
       </c>
-      <c r="B225" s="15" t="s">
+      <c r="B225" s="17" t="s">
         <v>582</v>
       </c>
       <c r="C225" t="s">
@@ -7588,7 +7874,7 @@
       <c r="D225" t="s">
         <v>577</v>
       </c>
-      <c r="E225" s="15" t="s">
+      <c r="E225" s="17" t="s">
         <v>580</v>
       </c>
       <c r="F225" t="s">
@@ -7602,31 +7888,31 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A226" s="15"/>
-      <c r="B226" s="15"/>
+      <c r="A226" s="17"/>
+      <c r="B226" s="17"/>
       <c r="D226" t="s">
         <v>578</v>
       </c>
-      <c r="E226" s="15"/>
+      <c r="E226" s="17"/>
       <c r="G226" s="16"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A227" s="15"/>
-      <c r="B227" s="15"/>
+      <c r="A227" s="17"/>
+      <c r="B227" s="17"/>
       <c r="C227" s="1" t="s">
         <v>576</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E227" s="15"/>
+      <c r="E227" s="17"/>
       <c r="G227" s="16"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A228" s="15">
+      <c r="A228" s="17">
         <v>63</v>
       </c>
-      <c r="B228" s="15" t="s">
+      <c r="B228" s="17" t="s">
         <v>583</v>
       </c>
       <c r="C228" t="s">
@@ -7635,7 +7921,7 @@
       <c r="D228" t="s">
         <v>588</v>
       </c>
-      <c r="E228" s="15" t="s">
+      <c r="E228" s="17" t="s">
         <v>591</v>
       </c>
       <c r="F228" t="s">
@@ -7649,46 +7935,46 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A229" s="15"/>
-      <c r="B229" s="15"/>
+      <c r="A229" s="17"/>
+      <c r="B229" s="17"/>
       <c r="C229" t="s">
         <v>584</v>
       </c>
       <c r="D229" t="s">
         <v>589</v>
       </c>
-      <c r="E229" s="15"/>
+      <c r="E229" s="17"/>
       <c r="G229" s="16"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A230" s="15"/>
-      <c r="B230" s="15"/>
+      <c r="A230" s="17"/>
+      <c r="B230" s="17"/>
       <c r="C230" t="s">
         <v>586</v>
       </c>
       <c r="D230" t="s">
         <v>590</v>
       </c>
-      <c r="E230" s="15"/>
+      <c r="E230" s="17"/>
       <c r="G230" s="16"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A231" s="15"/>
-      <c r="B231" s="15"/>
+      <c r="A231" s="17"/>
+      <c r="B231" s="17"/>
       <c r="C231" s="1" t="s">
         <v>587</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E231" s="15"/>
+      <c r="E231" s="17"/>
       <c r="G231" s="16"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A232" s="15">
+      <c r="A232" s="17">
         <v>64</v>
       </c>
-      <c r="B232" s="15" t="s">
+      <c r="B232" s="17" t="s">
         <v>595</v>
       </c>
       <c r="C232" t="s">
@@ -7697,7 +7983,7 @@
       <c r="D232" t="s">
         <v>598</v>
       </c>
-      <c r="E232" s="15" t="s">
+      <c r="E232" s="17" t="s">
         <v>596</v>
       </c>
       <c r="F232" t="s">
@@ -7708,34 +7994,34 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A233" s="15"/>
-      <c r="B233" s="15"/>
+      <c r="A233" s="17"/>
+      <c r="B233" s="17"/>
       <c r="C233" t="s">
         <v>601</v>
       </c>
       <c r="D233" t="s">
         <v>597</v>
       </c>
-      <c r="E233" s="15"/>
+      <c r="E233" s="17"/>
       <c r="G233" s="16"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A234" s="15"/>
-      <c r="B234" s="15"/>
+      <c r="A234" s="17"/>
+      <c r="B234" s="17"/>
       <c r="C234" s="1" t="s">
         <v>599</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E234" s="15"/>
+      <c r="E234" s="17"/>
       <c r="G234" s="16"/>
     </row>
     <row r="235" spans="1:8" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A235" s="15">
+      <c r="A235" s="17">
         <v>65</v>
       </c>
-      <c r="B235" s="15" t="s">
+      <c r="B235" s="17" t="s">
         <v>604</v>
       </c>
       <c r="C235" t="s">
@@ -7744,7 +8030,7 @@
       <c r="D235" t="s">
         <v>608</v>
       </c>
-      <c r="E235" s="15" t="s">
+      <c r="E235" s="17" t="s">
         <v>610</v>
       </c>
       <c r="F235" t="s">
@@ -7758,45 +8044,45 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A236" s="15"/>
-      <c r="B236" s="15"/>
+      <c r="A236" s="17"/>
+      <c r="B236" s="17"/>
       <c r="C236" t="s">
         <v>606</v>
       </c>
       <c r="D236" t="s">
         <v>609</v>
       </c>
-      <c r="E236" s="15"/>
+      <c r="E236" s="17"/>
       <c r="G236" s="16"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A237" s="15"/>
-      <c r="B237" s="15"/>
+      <c r="A237" s="17"/>
+      <c r="B237" s="17"/>
       <c r="C237" t="s">
         <v>607</v>
       </c>
       <c r="D237" t="s">
         <v>614</v>
       </c>
-      <c r="E237" s="15"/>
+      <c r="E237" s="17"/>
       <c r="G237" s="16"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A238" s="15"/>
-      <c r="B238" s="15"/>
+      <c r="A238" s="17"/>
+      <c r="B238" s="17"/>
       <c r="C238" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E238" s="15"/>
+      <c r="E238" s="17"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A239" s="15">
+      <c r="A239" s="17">
         <v>66</v>
       </c>
-      <c r="B239" s="15" t="s">
+      <c r="B239" s="17" t="s">
         <v>27</v>
       </c>
       <c r="C239" t="s">
@@ -7805,7 +8091,7 @@
       <c r="D239" t="s">
         <v>617</v>
       </c>
-      <c r="E239" s="15" t="s">
+      <c r="E239" s="17" t="s">
         <v>618</v>
       </c>
       <c r="F239" t="s">
@@ -7813,32 +8099,32 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A240" s="15"/>
-      <c r="B240" s="15"/>
+      <c r="A240" s="17"/>
+      <c r="B240" s="17"/>
       <c r="C240" t="s">
         <v>620</v>
       </c>
       <c r="D240" t="s">
         <v>621</v>
       </c>
-      <c r="E240" s="15"/>
+      <c r="E240" s="17"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A241" s="15"/>
-      <c r="B241" s="15"/>
+      <c r="A241" s="17"/>
+      <c r="B241" s="17"/>
       <c r="C241" s="1" t="s">
         <v>616</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E241" s="15"/>
+      <c r="E241" s="17"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A242" s="15">
+      <c r="A242" s="17">
         <v>67</v>
       </c>
-      <c r="B242" s="15" t="s">
+      <c r="B242" s="17" t="s">
         <v>623</v>
       </c>
       <c r="C242" t="s">
@@ -7847,7 +8133,7 @@
       <c r="D242" t="s">
         <v>629</v>
       </c>
-      <c r="E242" s="15" t="s">
+      <c r="E242" s="17" t="s">
         <v>628</v>
       </c>
       <c r="F242" t="s">
@@ -7858,32 +8144,32 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A243" s="15"/>
-      <c r="B243" s="15"/>
+      <c r="A243" s="17"/>
+      <c r="B243" s="17"/>
       <c r="C243" t="s">
         <v>625</v>
       </c>
       <c r="D243" t="s">
         <v>627</v>
       </c>
-      <c r="E243" s="15"/>
+      <c r="E243" s="17"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A244" s="15"/>
-      <c r="B244" s="15"/>
+      <c r="A244" s="17"/>
+      <c r="B244" s="17"/>
       <c r="C244" s="1" t="s">
         <v>626</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E244" s="15"/>
+      <c r="E244" s="17"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A245" s="15">
+      <c r="A245" s="17">
         <v>68</v>
       </c>
-      <c r="B245" s="15" t="s">
+      <c r="B245" s="17" t="s">
         <v>631</v>
       </c>
       <c r="C245" t="s">
@@ -7892,7 +8178,7 @@
       <c r="D245" t="s">
         <v>635</v>
       </c>
-      <c r="E245" s="15" t="s">
+      <c r="E245" s="17" t="s">
         <v>637</v>
       </c>
       <c r="F245" t="s">
@@ -7906,34 +8192,34 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A246" s="15"/>
-      <c r="B246" s="15"/>
+      <c r="A246" s="17"/>
+      <c r="B246" s="17"/>
       <c r="C246" t="s">
         <v>633</v>
       </c>
       <c r="D246" t="s">
         <v>636</v>
       </c>
-      <c r="E246" s="15"/>
+      <c r="E246" s="17"/>
       <c r="G246" s="16"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A247" s="15"/>
-      <c r="B247" s="15"/>
+      <c r="A247" s="17"/>
+      <c r="B247" s="17"/>
       <c r="C247" s="1" t="s">
         <v>634</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E247" s="15"/>
+      <c r="E247" s="17"/>
       <c r="G247" s="16"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A248" s="15">
+      <c r="A248" s="17">
         <v>69</v>
       </c>
-      <c r="B248" s="15" t="s">
+      <c r="B248" s="17" t="s">
         <v>639</v>
       </c>
       <c r="C248" t="s">
@@ -7942,7 +8228,7 @@
       <c r="D248" t="s">
         <v>641</v>
       </c>
-      <c r="E248" s="15" t="s">
+      <c r="E248" s="17" t="s">
         <v>643</v>
       </c>
       <c r="F248" t="s">
@@ -7953,31 +8239,31 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A249" s="15"/>
-      <c r="B249" s="15"/>
+      <c r="A249" s="17"/>
+      <c r="B249" s="17"/>
       <c r="D249" t="s">
         <v>642</v>
       </c>
-      <c r="E249" s="15"/>
+      <c r="E249" s="17"/>
       <c r="G249" s="16"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A250" s="15"/>
-      <c r="B250" s="15"/>
+      <c r="A250" s="17"/>
+      <c r="B250" s="17"/>
       <c r="C250" s="1" t="s">
         <v>634</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E250" s="15"/>
+      <c r="E250" s="17"/>
       <c r="G250" s="16"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A251" s="15">
+      <c r="A251" s="17">
         <v>70</v>
       </c>
-      <c r="B251" s="15" t="s">
+      <c r="B251" s="17" t="s">
         <v>647</v>
       </c>
       <c r="C251" t="s">
@@ -7986,7 +8272,7 @@
       <c r="D251" t="s">
         <v>652</v>
       </c>
-      <c r="E251" s="15" t="s">
+      <c r="E251" s="17" t="s">
         <v>654</v>
       </c>
       <c r="F251" t="s">
@@ -8000,46 +8286,46 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A252" s="15"/>
-      <c r="B252" s="15"/>
+      <c r="A252" s="17"/>
+      <c r="B252" s="17"/>
       <c r="C252" t="s">
         <v>649</v>
       </c>
       <c r="D252" t="s">
         <v>651</v>
       </c>
-      <c r="E252" s="15"/>
+      <c r="E252" s="17"/>
       <c r="G252" s="16"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A253" s="15"/>
-      <c r="B253" s="15"/>
+      <c r="A253" s="17"/>
+      <c r="B253" s="17"/>
       <c r="C253" t="s">
         <v>650</v>
       </c>
       <c r="D253" t="s">
         <v>653</v>
       </c>
-      <c r="E253" s="15"/>
+      <c r="E253" s="17"/>
       <c r="G253" s="16"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A254" s="15"/>
-      <c r="B254" s="15"/>
+      <c r="A254" s="17"/>
+      <c r="B254" s="17"/>
       <c r="C254" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E254" s="15"/>
+      <c r="E254" s="17"/>
       <c r="G254" s="16"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A255" s="15">
+      <c r="A255" s="17">
         <v>71</v>
       </c>
-      <c r="B255" s="15" t="s">
+      <c r="B255" s="17" t="s">
         <v>660</v>
       </c>
       <c r="C255" t="s">
@@ -8048,7 +8334,7 @@
       <c r="D255" t="s">
         <v>661</v>
       </c>
-      <c r="E255" s="15" t="s">
+      <c r="E255" s="17" t="s">
         <v>664</v>
       </c>
       <c r="F255" t="s">
@@ -8062,46 +8348,46 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A256" s="15"/>
-      <c r="B256" s="15"/>
+      <c r="A256" s="17"/>
+      <c r="B256" s="17"/>
       <c r="C256" t="s">
         <v>657</v>
       </c>
       <c r="D256" t="s">
         <v>662</v>
       </c>
-      <c r="E256" s="15"/>
+      <c r="E256" s="17"/>
       <c r="G256" s="16"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A257" s="15"/>
-      <c r="B257" s="15"/>
+      <c r="A257" s="17"/>
+      <c r="B257" s="17"/>
       <c r="C257" t="s">
         <v>49</v>
       </c>
       <c r="D257" t="s">
         <v>663</v>
       </c>
-      <c r="E257" s="15"/>
+      <c r="E257" s="17"/>
       <c r="G257" s="16"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A258" s="15"/>
-      <c r="B258" s="15"/>
+      <c r="A258" s="17"/>
+      <c r="B258" s="17"/>
       <c r="C258" s="1" t="s">
         <v>659</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E258" s="15"/>
+      <c r="E258" s="17"/>
       <c r="G258" s="16"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A259" s="15">
+      <c r="A259" s="17">
         <v>72</v>
       </c>
-      <c r="B259" s="15" t="s">
+      <c r="B259" s="17" t="s">
         <v>675</v>
       </c>
       <c r="C259" t="s">
@@ -8110,7 +8396,7 @@
       <c r="D259" t="s">
         <v>676</v>
       </c>
-      <c r="E259" s="15" t="s">
+      <c r="E259" s="17" t="s">
         <v>670</v>
       </c>
       <c r="F259" t="s">
@@ -8124,46 +8410,46 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A260" s="15"/>
-      <c r="B260" s="15"/>
+      <c r="A260" s="17"/>
+      <c r="B260" s="17"/>
       <c r="C260" t="s">
         <v>666</v>
       </c>
       <c r="D260" t="s">
         <v>668</v>
       </c>
-      <c r="E260" s="15"/>
+      <c r="E260" s="17"/>
       <c r="G260" s="16"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A261" s="15"/>
-      <c r="B261" s="15"/>
+      <c r="A261" s="17"/>
+      <c r="B261" s="17"/>
       <c r="C261" t="s">
         <v>607</v>
       </c>
       <c r="D261" t="s">
         <v>669</v>
       </c>
-      <c r="E261" s="15"/>
+      <c r="E261" s="17"/>
       <c r="G261" s="16"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A262" s="15"/>
-      <c r="B262" s="15"/>
+      <c r="A262" s="17"/>
+      <c r="B262" s="17"/>
       <c r="C262" s="1" t="s">
         <v>667</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E262" s="15"/>
+      <c r="E262" s="17"/>
       <c r="G262" s="16"/>
     </row>
     <row r="263" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A263" s="15">
+      <c r="A263" s="17">
         <v>73</v>
       </c>
-      <c r="B263" s="15" t="s">
+      <c r="B263" s="17" t="s">
         <v>680</v>
       </c>
       <c r="C263" t="s">
@@ -8172,7 +8458,7 @@
       <c r="D263" t="s">
         <v>677</v>
       </c>
-      <c r="E263" s="15" t="s">
+      <c r="E263" s="17" t="s">
         <v>682</v>
       </c>
       <c r="F263" t="s">
@@ -8186,34 +8472,34 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A264" s="15"/>
-      <c r="B264" s="15"/>
+      <c r="A264" s="17"/>
+      <c r="B264" s="17"/>
       <c r="C264" t="s">
         <v>685</v>
       </c>
       <c r="D264" t="s">
         <v>679</v>
       </c>
-      <c r="E264" s="15"/>
+      <c r="E264" s="17"/>
       <c r="G264" s="16"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A265" s="15"/>
-      <c r="B265" s="15"/>
+      <c r="A265" s="17"/>
+      <c r="B265" s="17"/>
       <c r="C265" s="1" t="s">
         <v>576</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E265" s="15"/>
+      <c r="E265" s="17"/>
       <c r="G265" s="16"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A266" s="15">
+      <c r="A266" s="17">
         <v>74</v>
       </c>
-      <c r="B266" s="15" t="s">
+      <c r="B266" s="17" t="s">
         <v>686</v>
       </c>
       <c r="C266" s="12" t="s">
@@ -8222,7 +8508,7 @@
       <c r="D266" t="s">
         <v>691</v>
       </c>
-      <c r="E266" s="15" t="s">
+      <c r="E266" s="17" t="s">
         <v>692</v>
       </c>
       <c r="F266" t="s">
@@ -8236,34 +8522,34 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A267" s="15"/>
-      <c r="B267" s="15"/>
+      <c r="A267" s="17"/>
+      <c r="B267" s="17"/>
       <c r="C267" t="s">
         <v>687</v>
       </c>
       <c r="D267" t="s">
         <v>690</v>
       </c>
-      <c r="E267" s="15"/>
+      <c r="E267" s="17"/>
       <c r="G267" s="16"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A268" s="15"/>
-      <c r="B268" s="15"/>
+      <c r="A268" s="17"/>
+      <c r="B268" s="17"/>
       <c r="C268" s="1" t="s">
         <v>688</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E268" s="15"/>
+      <c r="E268" s="17"/>
       <c r="G268" s="16"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A269" s="15">
+      <c r="A269" s="17">
         <v>75</v>
       </c>
-      <c r="B269" s="15" t="s">
+      <c r="B269" s="17" t="s">
         <v>698</v>
       </c>
       <c r="C269" t="s">
@@ -8272,7 +8558,7 @@
       <c r="D269" t="s">
         <v>704</v>
       </c>
-      <c r="E269" s="15" t="s">
+      <c r="E269" s="17" t="s">
         <v>710</v>
       </c>
       <c r="F269" t="s">
@@ -8286,55 +8572,55 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A270" s="15"/>
-      <c r="B270" s="15"/>
+      <c r="A270" s="17"/>
+      <c r="B270" s="17"/>
       <c r="C270" t="s">
         <v>703</v>
       </c>
       <c r="D270" t="s">
         <v>705</v>
       </c>
-      <c r="E270" s="15"/>
+      <c r="E270" s="17"/>
       <c r="G270" s="16"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A271" s="15"/>
-      <c r="B271" s="15"/>
+      <c r="A271" s="17"/>
+      <c r="B271" s="17"/>
       <c r="C271" t="s">
         <v>699</v>
       </c>
       <c r="D271" t="s">
         <v>706</v>
       </c>
-      <c r="E271" s="15"/>
+      <c r="E271" s="17"/>
       <c r="G271" s="16"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A272" s="15"/>
-      <c r="B272" s="15"/>
+      <c r="A272" s="17"/>
+      <c r="B272" s="17"/>
       <c r="C272" t="s">
         <v>700</v>
       </c>
-      <c r="E272" s="15"/>
+      <c r="E272" s="17"/>
       <c r="G272" s="16"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A273" s="15"/>
-      <c r="B273" s="15"/>
+      <c r="A273" s="17"/>
+      <c r="B273" s="17"/>
       <c r="C273" s="1" t="s">
         <v>701</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E273" s="15"/>
+      <c r="E273" s="17"/>
       <c r="G273" s="16"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A274" s="15">
+      <c r="A274" s="17">
         <v>76</v>
       </c>
-      <c r="B274" s="15" t="s">
+      <c r="B274" s="17" t="s">
         <v>711</v>
       </c>
       <c r="C274" t="s">
@@ -8343,7 +8629,7 @@
       <c r="D274" t="s">
         <v>714</v>
       </c>
-      <c r="E274" s="15" t="s">
+      <c r="E274" s="17" t="s">
         <v>716</v>
       </c>
       <c r="F274" t="s">
@@ -8357,31 +8643,31 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A275" s="15"/>
-      <c r="B275" s="15"/>
+      <c r="A275" s="17"/>
+      <c r="B275" s="17"/>
       <c r="D275" t="s">
         <v>713</v>
       </c>
-      <c r="E275" s="15"/>
+      <c r="E275" s="17"/>
       <c r="G275" s="16"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A276" s="15"/>
-      <c r="B276" s="15"/>
+      <c r="A276" s="17"/>
+      <c r="B276" s="17"/>
       <c r="C276" s="1" t="s">
         <v>181</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E276" s="15"/>
+      <c r="E276" s="17"/>
       <c r="G276" s="16"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A277" s="15">
+      <c r="A277" s="17">
         <v>77</v>
       </c>
-      <c r="B277" s="15" t="s">
+      <c r="B277" s="17" t="s">
         <v>698</v>
       </c>
       <c r="C277" t="s">
@@ -8390,7 +8676,7 @@
       <c r="D277" t="s">
         <v>721</v>
       </c>
-      <c r="E277" s="15" t="s">
+      <c r="E277" s="17" t="s">
         <v>723</v>
       </c>
       <c r="F277" t="s">
@@ -8404,40 +8690,40 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A278" s="15"/>
-      <c r="B278" s="15"/>
+      <c r="A278" s="17"/>
+      <c r="B278" s="17"/>
       <c r="C278" t="s">
         <v>719</v>
       </c>
       <c r="D278" t="s">
         <v>722</v>
       </c>
-      <c r="E278" s="15"/>
+      <c r="E278" s="17"/>
       <c r="G278" s="16"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A279" s="15"/>
-      <c r="B279" s="15"/>
+      <c r="A279" s="17"/>
+      <c r="B279" s="17"/>
       <c r="C279" s="1" t="s">
         <v>720</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E279" s="15"/>
+      <c r="E279" s="17"/>
       <c r="G279" s="16"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A280" s="15">
+      <c r="A280" s="17">
         <v>78</v>
       </c>
-      <c r="B280" s="15" t="s">
+      <c r="B280" s="17" t="s">
         <v>736</v>
       </c>
       <c r="D280" t="s">
         <v>729</v>
       </c>
-      <c r="E280" s="15" t="s">
+      <c r="E280" s="17" t="s">
         <v>731</v>
       </c>
       <c r="F280" t="s">
@@ -8451,40 +8737,40 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A281" s="15"/>
-      <c r="B281" s="15"/>
+      <c r="A281" s="17"/>
+      <c r="B281" s="17"/>
       <c r="D281" t="s">
         <v>730</v>
       </c>
-      <c r="E281" s="15"/>
+      <c r="E281" s="17"/>
       <c r="G281" s="16"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A282" s="15"/>
-      <c r="B282" s="15"/>
+      <c r="A282" s="17"/>
+      <c r="B282" s="17"/>
       <c r="D282" t="s">
         <v>735</v>
       </c>
-      <c r="E282" s="15"/>
+      <c r="E282" s="17"/>
       <c r="G282" s="16"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A283" s="15"/>
-      <c r="B283" s="15"/>
+      <c r="A283" s="17"/>
+      <c r="B283" s="17"/>
       <c r="C283" s="1" t="s">
         <v>728</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E283" s="15"/>
+      <c r="E283" s="17"/>
       <c r="G283" s="16"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A284" s="15">
+      <c r="A284" s="17">
         <v>79</v>
       </c>
-      <c r="B284" s="15" t="s">
+      <c r="B284" s="17" t="s">
         <v>698</v>
       </c>
       <c r="C284" t="s">
@@ -8493,7 +8779,7 @@
       <c r="D284" t="s">
         <v>744</v>
       </c>
-      <c r="E284" s="15" t="s">
+      <c r="E284" s="17" t="s">
         <v>740</v>
       </c>
       <c r="F284" t="s">
@@ -8507,34 +8793,34 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A285" s="15"/>
-      <c r="B285" s="15"/>
+      <c r="A285" s="17"/>
+      <c r="B285" s="17"/>
       <c r="C285" t="s">
         <v>738</v>
       </c>
       <c r="D285" t="s">
         <v>739</v>
       </c>
-      <c r="E285" s="15"/>
+      <c r="E285" s="17"/>
       <c r="G285" s="16"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A286" s="15"/>
-      <c r="B286" s="15"/>
+      <c r="A286" s="17"/>
+      <c r="B286" s="17"/>
       <c r="C286" s="1" t="s">
         <v>728</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E286" s="15"/>
+      <c r="E286" s="17"/>
       <c r="G286" s="16"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A287" s="15">
+      <c r="A287" s="17">
         <v>80</v>
       </c>
-      <c r="B287" s="15" t="s">
+      <c r="B287" s="17" t="s">
         <v>745</v>
       </c>
       <c r="C287" t="s">
@@ -8543,7 +8829,7 @@
       <c r="D287" t="s">
         <v>749</v>
       </c>
-      <c r="E287" s="15" t="s">
+      <c r="E287" s="17" t="s">
         <v>751</v>
       </c>
       <c r="F287" t="s">
@@ -8557,34 +8843,34 @@
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A288" s="15"/>
-      <c r="B288" s="15"/>
+      <c r="A288" s="17"/>
+      <c r="B288" s="17"/>
       <c r="C288" t="s">
         <v>747</v>
       </c>
       <c r="D288" t="s">
         <v>750</v>
       </c>
-      <c r="E288" s="15"/>
+      <c r="E288" s="17"/>
       <c r="G288" s="16"/>
     </row>
     <row r="289" spans="1:8" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A289" s="15"/>
-      <c r="B289" s="15"/>
+      <c r="A289" s="17"/>
+      <c r="B289" s="17"/>
       <c r="C289" s="1" t="s">
         <v>748</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="E289" s="15"/>
+      <c r="E289" s="17"/>
       <c r="G289" s="16"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A290" s="15">
+      <c r="A290" s="17">
         <v>81</v>
       </c>
-      <c r="B290" s="15" t="s">
+      <c r="B290" s="17" t="s">
         <v>755</v>
       </c>
       <c r="C290" t="s">
@@ -8593,7 +8879,7 @@
       <c r="D290" t="s">
         <v>757</v>
       </c>
-      <c r="E290" s="15" t="s">
+      <c r="E290" s="17" t="s">
         <v>759</v>
       </c>
       <c r="F290" t="s">
@@ -8607,31 +8893,31 @@
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A291" s="15"/>
-      <c r="B291" s="15"/>
+      <c r="A291" s="17"/>
+      <c r="B291" s="17"/>
       <c r="D291" t="s">
         <v>758</v>
       </c>
-      <c r="E291" s="15"/>
+      <c r="E291" s="17"/>
       <c r="G291" s="16"/>
     </row>
     <row r="292" spans="1:8" ht="16.5" x14ac:dyDescent="0.6">
-      <c r="A292" s="15"/>
-      <c r="B292" s="15"/>
+      <c r="A292" s="17"/>
+      <c r="B292" s="17"/>
       <c r="C292" s="1" t="s">
         <v>748</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E292" s="15"/>
+      <c r="E292" s="17"/>
       <c r="G292" s="16"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A293" s="15">
+      <c r="A293" s="17">
         <v>82</v>
       </c>
-      <c r="B293" s="15" t="s">
+      <c r="B293" s="17" t="s">
         <v>763</v>
       </c>
       <c r="C293" t="s">
@@ -8640,7 +8926,7 @@
       <c r="D293" t="s">
         <v>766</v>
       </c>
-      <c r="E293" s="15" t="s">
+      <c r="E293" s="17" t="s">
         <v>768</v>
       </c>
       <c r="F293" t="s">
@@ -8651,34 +8937,34 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A294" s="15"/>
-      <c r="B294" s="15"/>
+      <c r="A294" s="17"/>
+      <c r="B294" s="17"/>
       <c r="C294" t="s">
         <v>765</v>
       </c>
       <c r="D294" t="s">
         <v>767</v>
       </c>
-      <c r="E294" s="15"/>
+      <c r="E294" s="17"/>
       <c r="G294" s="16"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A295" s="15"/>
-      <c r="B295" s="15"/>
+      <c r="A295" s="17"/>
+      <c r="B295" s="17"/>
       <c r="C295" s="1" t="s">
         <v>419</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E295" s="15"/>
+      <c r="E295" s="17"/>
       <c r="G295" s="16"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A296" s="15">
+      <c r="A296" s="17">
         <v>83</v>
       </c>
-      <c r="B296" s="15" t="s">
+      <c r="B296" s="17" t="s">
         <v>772</v>
       </c>
       <c r="C296" t="s">
@@ -8687,7 +8973,7 @@
       <c r="D296" t="s">
         <v>779</v>
       </c>
-      <c r="E296" s="15" t="s">
+      <c r="E296" s="17" t="s">
         <v>771</v>
       </c>
       <c r="F296" t="s">
@@ -8701,46 +8987,46 @@
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A297" s="15"/>
-      <c r="B297" s="15"/>
+      <c r="A297" s="17"/>
+      <c r="B297" s="17"/>
       <c r="C297" t="s">
         <v>774</v>
       </c>
       <c r="D297" t="s">
         <v>776</v>
       </c>
-      <c r="E297" s="15"/>
+      <c r="E297" s="17"/>
       <c r="G297" s="16"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A298" s="15"/>
-      <c r="B298" s="15"/>
+      <c r="A298" s="17"/>
+      <c r="B298" s="17"/>
       <c r="C298" t="s">
         <v>775</v>
       </c>
       <c r="D298" t="s">
         <v>780</v>
       </c>
-      <c r="E298" s="15"/>
+      <c r="E298" s="17"/>
       <c r="G298" s="16"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A299" s="15"/>
-      <c r="B299" s="15"/>
+      <c r="A299" s="17"/>
+      <c r="B299" s="17"/>
       <c r="C299" s="1" t="s">
         <v>404</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E299" s="15"/>
+      <c r="E299" s="17"/>
       <c r="G299" s="16"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A300" s="15">
+      <c r="A300" s="17">
         <v>84</v>
       </c>
-      <c r="B300" s="15" t="s">
+      <c r="B300" s="17" t="s">
         <v>781</v>
       </c>
       <c r="C300" t="s">
@@ -8749,7 +9035,7 @@
       <c r="D300" t="s">
         <v>784</v>
       </c>
-      <c r="E300" s="15" t="s">
+      <c r="E300" s="17" t="s">
         <v>786</v>
       </c>
       <c r="F300" t="s">
@@ -8763,37 +9049,37 @@
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A301" s="15"/>
-      <c r="B301" s="15"/>
+      <c r="A301" s="17"/>
+      <c r="B301" s="17"/>
       <c r="C301" t="s">
         <v>783</v>
       </c>
       <c r="D301" t="s">
         <v>785</v>
       </c>
-      <c r="E301" s="15"/>
+      <c r="E301" s="17"/>
       <c r="F301" t="s">
         <v>788</v>
       </c>
       <c r="G301" s="16"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A302" s="15"/>
-      <c r="B302" s="15"/>
+      <c r="A302" s="17"/>
+      <c r="B302" s="17"/>
       <c r="C302" s="1" t="s">
         <v>667</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E302" s="15"/>
+      <c r="E302" s="17"/>
       <c r="G302" s="16"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A303" s="16">
         <v>85</v>
       </c>
-      <c r="B303" s="15" t="s">
+      <c r="B303" s="17" t="s">
         <v>814</v>
       </c>
       <c r="C303" t="s">
@@ -8802,7 +9088,7 @@
       <c r="D303" t="s">
         <v>815</v>
       </c>
-      <c r="E303" s="15" t="s">
+      <c r="E303" s="17" t="s">
         <v>817</v>
       </c>
       <c r="F303" t="s">
@@ -8814,42 +9100,42 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A304" s="16"/>
-      <c r="B304" s="15"/>
+      <c r="B304" s="17"/>
       <c r="C304" t="s">
         <v>812</v>
       </c>
       <c r="D304" t="s">
         <v>816</v>
       </c>
-      <c r="E304" s="15"/>
+      <c r="E304" s="17"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A305" s="16"/>
-      <c r="B305" s="15"/>
+      <c r="B305" s="17"/>
       <c r="C305" t="s">
         <v>810</v>
       </c>
       <c r="D305" t="s">
         <v>818</v>
       </c>
-      <c r="E305" s="15"/>
+      <c r="E305" s="17"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A306" s="16"/>
-      <c r="B306" s="15"/>
+      <c r="B306" s="17"/>
       <c r="C306" s="1" t="s">
         <v>811</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E306" s="15"/>
+      <c r="E306" s="17"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A307" s="16">
         <v>86</v>
       </c>
-      <c r="B307" s="15" t="s">
+      <c r="B307" s="17" t="s">
         <v>831</v>
       </c>
       <c r="C307" t="s">
@@ -8858,7 +9144,7 @@
       <c r="D307" t="s">
         <v>824</v>
       </c>
-      <c r="E307" s="15" t="s">
+      <c r="E307" s="17" t="s">
         <v>827</v>
       </c>
       <c r="F307" t="s">
@@ -8873,45 +9159,45 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A308" s="16"/>
-      <c r="B308" s="15"/>
+      <c r="B308" s="17"/>
       <c r="C308" t="s">
         <v>822</v>
       </c>
       <c r="D308" t="s">
         <v>825</v>
       </c>
-      <c r="E308" s="15"/>
+      <c r="E308" s="17"/>
       <c r="G308" s="16"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A309" s="16"/>
-      <c r="B309" s="15"/>
+      <c r="B309" s="17"/>
       <c r="C309" t="s">
         <v>823</v>
       </c>
       <c r="D309" t="s">
         <v>826</v>
       </c>
-      <c r="E309" s="15"/>
+      <c r="E309" s="17"/>
       <c r="G309" s="16"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A310" s="16"/>
-      <c r="B310" s="15"/>
+      <c r="B310" s="17"/>
       <c r="C310" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E310" s="15"/>
+      <c r="E310" s="17"/>
       <c r="G310" s="16"/>
     </row>
     <row r="311" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A311" s="16">
         <v>87</v>
       </c>
-      <c r="B311" s="15" t="s">
+      <c r="B311" s="17" t="s">
         <v>832</v>
       </c>
       <c r="C311" t="s">
@@ -8920,7 +9206,7 @@
       <c r="D311" t="s">
         <v>835</v>
       </c>
-      <c r="E311" s="15" t="s">
+      <c r="E311" s="17" t="s">
         <v>837</v>
       </c>
       <c r="F311" t="s">
@@ -8935,30 +9221,30 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A312" s="16"/>
-      <c r="B312" s="15"/>
+      <c r="B312" s="17"/>
       <c r="D312" t="s">
         <v>836</v>
       </c>
-      <c r="E312" s="15"/>
+      <c r="E312" s="17"/>
       <c r="G312" s="16"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A313" s="16"/>
-      <c r="B313" s="15"/>
+      <c r="B313" s="17"/>
       <c r="C313" s="1" t="s">
         <v>833</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E313" s="15"/>
+      <c r="E313" s="17"/>
       <c r="G313" s="16"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A314" s="16">
         <v>88</v>
       </c>
-      <c r="B314" s="15" t="s">
+      <c r="B314" s="17" t="s">
         <v>844</v>
       </c>
       <c r="C314" t="s">
@@ -8967,7 +9253,7 @@
       <c r="D314" t="s">
         <v>842</v>
       </c>
-      <c r="E314" s="15" t="s">
+      <c r="E314" s="17" t="s">
         <v>846</v>
       </c>
       <c r="F314" t="s">
@@ -8982,38 +9268,38 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A315" s="16"/>
-      <c r="B315" s="15"/>
+      <c r="B315" s="17"/>
       <c r="C315" t="s">
         <v>841</v>
       </c>
       <c r="D315" t="s">
         <v>845</v>
       </c>
-      <c r="E315" s="15"/>
+      <c r="E315" s="17"/>
       <c r="G315" s="16"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A316" s="16"/>
-      <c r="B316" s="15"/>
+      <c r="B316" s="17"/>
       <c r="C316" t="s">
         <v>49</v>
       </c>
       <c r="D316" t="s">
         <v>843</v>
       </c>
-      <c r="E316" s="15"/>
+      <c r="E316" s="17"/>
       <c r="G316" s="16"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A317" s="16"/>
-      <c r="B317" s="15"/>
+      <c r="B317" s="17"/>
       <c r="C317" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E317" s="15"/>
+      <c r="E317" s="17"/>
       <c r="G317" s="16" t="s">
         <v>854</v>
       </c>
@@ -9025,7 +9311,7 @@
       <c r="A318" s="16">
         <v>89</v>
       </c>
-      <c r="B318" s="15" t="s">
+      <c r="B318" s="17" t="s">
         <v>848</v>
       </c>
       <c r="C318" t="s">
@@ -9034,7 +9320,7 @@
       <c r="D318" t="s">
         <v>850</v>
       </c>
-      <c r="E318" s="15" t="s">
+      <c r="E318" s="17" t="s">
         <v>851</v>
       </c>
       <c r="F318" t="s">
@@ -9044,23 +9330,23 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A319" s="16"/>
-      <c r="B319" s="15"/>
+      <c r="B319" s="17"/>
       <c r="D319" t="s">
         <v>852</v>
       </c>
-      <c r="E319" s="15"/>
+      <c r="E319" s="17"/>
       <c r="G319" s="16"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A320" s="16"/>
-      <c r="B320" s="15"/>
+      <c r="B320" s="17"/>
       <c r="C320" s="1" t="s">
         <v>566</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E320" s="15"/>
+      <c r="E320" s="17"/>
       <c r="G320" s="16" t="s">
         <v>769</v>
       </c>
@@ -9072,7 +9358,7 @@
       <c r="A321" s="16">
         <v>90</v>
       </c>
-      <c r="B321" s="15" t="s">
+      <c r="B321" s="17" t="s">
         <v>862</v>
       </c>
       <c r="C321" t="s">
@@ -9081,7 +9367,7 @@
       <c r="D321" t="s">
         <v>864</v>
       </c>
-      <c r="E321" s="15" t="s">
+      <c r="E321" s="17" t="s">
         <v>866</v>
       </c>
       <c r="F321" t="s">
@@ -9091,45 +9377,45 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A322" s="16"/>
-      <c r="B322" s="15"/>
+      <c r="B322" s="17"/>
       <c r="C322" t="s">
         <v>869</v>
       </c>
       <c r="D322" t="s">
         <v>863</v>
       </c>
-      <c r="E322" s="15"/>
+      <c r="E322" s="17"/>
       <c r="G322" s="16"/>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A323" s="16"/>
-      <c r="B323" s="15"/>
+      <c r="B323" s="17"/>
       <c r="C323" t="s">
         <v>859</v>
       </c>
       <c r="D323" t="s">
         <v>865</v>
       </c>
-      <c r="E323" s="15"/>
+      <c r="E323" s="17"/>
       <c r="G323" s="16"/>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A324" s="16"/>
-      <c r="B324" s="15"/>
+      <c r="B324" s="17"/>
       <c r="C324" s="1" t="s">
         <v>861</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E324" s="15"/>
+      <c r="E324" s="17"/>
       <c r="G324" s="16"/>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A325" s="16">
         <v>91</v>
       </c>
-      <c r="B325" s="15" t="s">
+      <c r="B325" s="17" t="s">
         <v>623</v>
       </c>
       <c r="C325" t="s">
@@ -9138,7 +9424,7 @@
       <c r="D325" t="s">
         <v>873</v>
       </c>
-      <c r="E325" s="15" t="s">
+      <c r="E325" s="17" t="s">
         <v>876</v>
       </c>
       <c r="F325" t="s">
@@ -9153,54 +9439,54 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A326" s="16"/>
-      <c r="B326" s="15"/>
+      <c r="B326" s="17"/>
       <c r="C326" t="s">
         <v>870</v>
       </c>
       <c r="D326" t="s">
         <v>874</v>
       </c>
-      <c r="E326" s="15"/>
+      <c r="E326" s="17"/>
       <c r="G326" s="16"/>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A327" s="16"/>
-      <c r="B327" s="15"/>
+      <c r="B327" s="17"/>
       <c r="C327" t="s">
         <v>871</v>
       </c>
       <c r="D327" t="s">
         <v>875</v>
       </c>
-      <c r="E327" s="15"/>
+      <c r="E327" s="17"/>
       <c r="G327" s="16"/>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A328" s="16"/>
-      <c r="B328" s="15"/>
+      <c r="B328" s="17"/>
       <c r="C328" t="s">
         <v>872</v>
       </c>
-      <c r="E328" s="15"/>
+      <c r="E328" s="17"/>
       <c r="G328" s="16"/>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A329" s="16"/>
-      <c r="B329" s="15"/>
+      <c r="B329" s="17"/>
       <c r="C329" s="1" t="s">
         <v>295</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E329" s="15"/>
+      <c r="E329" s="17"/>
       <c r="G329" s="16"/>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A330" s="16">
         <v>92</v>
       </c>
-      <c r="B330" s="15" t="s">
+      <c r="B330" s="17" t="s">
         <v>881</v>
       </c>
       <c r="C330" t="s">
@@ -9209,7 +9495,7 @@
       <c r="D330" t="s">
         <v>883</v>
       </c>
-      <c r="E330" s="15" t="s">
+      <c r="E330" s="17" t="s">
         <v>884</v>
       </c>
       <c r="F330" t="s">
@@ -9224,39 +9510,39 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A331" s="16"/>
-      <c r="B331" s="15"/>
+      <c r="B331" s="17"/>
       <c r="C331" t="s">
         <v>880</v>
       </c>
-      <c r="E331" s="15"/>
+      <c r="E331" s="17"/>
       <c r="G331" s="16"/>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A332" s="16"/>
-      <c r="B332" s="15"/>
+      <c r="B332" s="17"/>
       <c r="C332" t="s">
         <v>882</v>
       </c>
-      <c r="E332" s="15"/>
+      <c r="E332" s="17"/>
       <c r="G332" s="16"/>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A333" s="16"/>
-      <c r="B333" s="15"/>
+      <c r="B333" s="17"/>
       <c r="C333" s="1" t="s">
         <v>430</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E333" s="15"/>
+      <c r="E333" s="17"/>
       <c r="G333" s="16"/>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A334" s="16">
         <v>93</v>
       </c>
-      <c r="B334" s="15" t="s">
+      <c r="B334" s="17" t="s">
         <v>887</v>
       </c>
       <c r="C334" t="s">
@@ -9265,7 +9551,7 @@
       <c r="D334" t="s">
         <v>889</v>
       </c>
-      <c r="E334" s="15" t="s">
+      <c r="E334" s="17" t="s">
         <v>892</v>
       </c>
       <c r="F334" t="s">
@@ -9280,42 +9566,42 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A335" s="16"/>
-      <c r="B335" s="15"/>
+      <c r="B335" s="17"/>
       <c r="C335" t="s">
         <v>29</v>
       </c>
       <c r="D335" t="s">
         <v>890</v>
       </c>
-      <c r="E335" s="15"/>
+      <c r="E335" s="17"/>
       <c r="G335" s="16"/>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A336" s="16"/>
-      <c r="B336" s="15"/>
+      <c r="B336" s="17"/>
       <c r="D336" t="s">
         <v>891</v>
       </c>
-      <c r="E336" s="15"/>
+      <c r="E336" s="17"/>
       <c r="G336" s="16"/>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A337" s="16"/>
-      <c r="B337" s="15"/>
+      <c r="B337" s="17"/>
       <c r="C337" s="1" t="s">
         <v>918</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E337" s="15"/>
+      <c r="E337" s="17"/>
       <c r="G337" s="16"/>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A338" s="16">
         <v>94</v>
       </c>
-      <c r="B338" s="15" t="s">
+      <c r="B338" s="17" t="s">
         <v>898</v>
       </c>
       <c r="C338" t="s">
@@ -9324,7 +9610,7 @@
       <c r="D338" t="s">
         <v>896</v>
       </c>
-      <c r="E338" s="15" t="s">
+      <c r="E338" s="17" t="s">
         <v>899</v>
       </c>
       <c r="F338" t="s">
@@ -9339,11 +9625,11 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A339" s="16"/>
-      <c r="B339" s="15"/>
+      <c r="B339" s="17"/>
       <c r="D339" t="s">
         <v>897</v>
       </c>
-      <c r="E339" s="15"/>
+      <c r="E339" s="17"/>
       <c r="F339" t="s">
         <v>909</v>
       </c>
@@ -9351,21 +9637,21 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A340" s="16"/>
-      <c r="B340" s="15"/>
+      <c r="B340" s="17"/>
       <c r="C340" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E340" s="15"/>
+      <c r="E340" s="17"/>
       <c r="G340" s="16"/>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A341" s="16">
         <v>95</v>
       </c>
-      <c r="B341" s="15" t="s">
+      <c r="B341" s="17" t="s">
         <v>907</v>
       </c>
       <c r="C341" t="s">
@@ -9374,7 +9660,7 @@
       <c r="D341" t="s">
         <v>905</v>
       </c>
-      <c r="E341" s="15" t="s">
+      <c r="E341" s="17" t="s">
         <v>908</v>
       </c>
       <c r="F341" t="s">
@@ -9389,30 +9675,30 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A342" s="16"/>
-      <c r="B342" s="15"/>
+      <c r="B342" s="17"/>
       <c r="D342" t="s">
         <v>906</v>
       </c>
-      <c r="E342" s="15"/>
+      <c r="E342" s="17"/>
       <c r="G342" s="16"/>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A343" s="16"/>
-      <c r="B343" s="15"/>
+      <c r="B343" s="17"/>
       <c r="C343" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E343" s="15"/>
+      <c r="E343" s="17"/>
       <c r="G343" s="16"/>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A344" s="16">
         <v>96</v>
       </c>
-      <c r="B344" s="15" t="s">
+      <c r="B344" s="17" t="s">
         <v>916</v>
       </c>
       <c r="C344" t="s">
@@ -9421,7 +9707,7 @@
       <c r="D344" t="s">
         <v>921</v>
       </c>
-      <c r="E344" s="15" t="s">
+      <c r="E344" s="17" t="s">
         <v>920</v>
       </c>
       <c r="F344" t="s">
@@ -9436,163 +9722,649 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A345" s="16"/>
-      <c r="B345" s="15"/>
+      <c r="B345" s="17"/>
       <c r="C345" t="s">
         <v>913</v>
       </c>
       <c r="D345" t="s">
         <v>917</v>
       </c>
-      <c r="E345" s="15"/>
+      <c r="E345" s="17"/>
       <c r="G345" s="16"/>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A346" s="16"/>
-      <c r="B346" s="15"/>
+      <c r="B346" s="17"/>
       <c r="C346" t="s">
         <v>49</v>
       </c>
       <c r="D346" t="s">
         <v>919</v>
       </c>
-      <c r="E346" s="15"/>
+      <c r="E346" s="17"/>
       <c r="G346" s="16"/>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A347" s="16"/>
-      <c r="B347" s="15"/>
+      <c r="B347" s="17"/>
       <c r="C347" s="1" t="s">
         <v>915</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E347" s="15"/>
+      <c r="E347" s="17"/>
       <c r="G347" s="16"/>
     </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A348" s="16">
+        <v>97</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C348" t="s">
+        <v>925</v>
+      </c>
+      <c r="D348" t="s">
+        <v>927</v>
+      </c>
+      <c r="E348" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="F348" t="s">
+        <v>929</v>
+      </c>
+      <c r="G348" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="H348" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A349" s="16"/>
+      <c r="B349" s="17"/>
+      <c r="C349" t="s">
+        <v>926</v>
+      </c>
+      <c r="D349" t="s">
+        <v>930</v>
+      </c>
+      <c r="E349" s="17"/>
+      <c r="F349" t="s">
+        <v>931</v>
+      </c>
+      <c r="G349" s="16"/>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A350" s="16"/>
+      <c r="B350" s="17"/>
+      <c r="C350" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350" s="17"/>
+      <c r="G350" s="16"/>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A351" s="16">
+        <v>98</v>
+      </c>
+      <c r="B351" s="17" t="s">
+        <v>943</v>
+      </c>
+      <c r="C351" t="s">
+        <v>934</v>
+      </c>
+      <c r="D351" t="s">
+        <v>941</v>
+      </c>
+      <c r="E351" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="F351" t="s">
+        <v>945</v>
+      </c>
+      <c r="G351" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="H351" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A352" s="16"/>
+      <c r="B352" s="17"/>
+      <c r="C352" t="s">
+        <v>935</v>
+      </c>
+      <c r="D352" t="s">
+        <v>942</v>
+      </c>
+      <c r="E352" s="17"/>
+      <c r="F352" t="s">
+        <v>946</v>
+      </c>
+      <c r="G352" s="16"/>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A353" s="16"/>
+      <c r="B353" s="17"/>
+      <c r="C353" t="s">
+        <v>936</v>
+      </c>
+      <c r="E353" s="17"/>
+      <c r="G353" s="16"/>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A354" s="16"/>
+      <c r="B354" s="17"/>
+      <c r="C354" t="s">
+        <v>937</v>
+      </c>
+      <c r="E354" s="17"/>
+      <c r="G354" s="16"/>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A355" s="16"/>
+      <c r="B355" s="17"/>
+      <c r="C355" t="s">
+        <v>939</v>
+      </c>
+      <c r="E355" s="17"/>
+      <c r="G355" s="16"/>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A356" s="16"/>
+      <c r="B356" s="17"/>
+      <c r="C356" t="s">
+        <v>940</v>
+      </c>
+      <c r="E356" s="17"/>
+      <c r="G356" s="16"/>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A357" s="16"/>
+      <c r="B357" s="17"/>
+      <c r="C357" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E357" s="17"/>
+      <c r="G357" s="16"/>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A358" s="16">
+        <v>99</v>
+      </c>
+      <c r="B358" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="C358" t="s">
+        <v>951</v>
+      </c>
+      <c r="D358" t="s">
+        <v>953</v>
+      </c>
+      <c r="E358" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="F358" t="s">
+        <v>956</v>
+      </c>
+      <c r="G358" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="H358" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A359" s="16"/>
+      <c r="B359" s="17"/>
+      <c r="C359" t="s">
+        <v>952</v>
+      </c>
+      <c r="D359" t="s">
+        <v>954</v>
+      </c>
+      <c r="E359" s="17"/>
+      <c r="G359" s="16"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A360" s="16"/>
+      <c r="B360" s="17"/>
+      <c r="C360" t="s">
+        <v>950</v>
+      </c>
+      <c r="D360" t="s">
+        <v>955</v>
+      </c>
+      <c r="E360" s="17"/>
+      <c r="G360" s="16"/>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A361" s="16"/>
+      <c r="B361" s="17"/>
+      <c r="C361" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E361" s="17"/>
+      <c r="G361" s="16"/>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A362" s="16">
+        <v>100</v>
+      </c>
+      <c r="B362" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="C362" s="1"/>
+      <c r="D362" t="s">
+        <v>979</v>
+      </c>
+      <c r="E362" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="F362" t="s">
+        <v>981</v>
+      </c>
+      <c r="G362" s="16" t="s">
+        <v>977</v>
+      </c>
+      <c r="H362" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="14.25" x14ac:dyDescent="0.4">
+      <c r="A363" s="16"/>
+      <c r="B363" s="17"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="15" t="s">
+        <v>980</v>
+      </c>
+      <c r="E363" s="17"/>
+      <c r="G363" s="16"/>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A364" s="16"/>
+      <c r="B364" s="17"/>
+      <c r="C364" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="E364" s="17"/>
+      <c r="G364" s="16"/>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A365" s="16">
+        <v>101</v>
+      </c>
+      <c r="B365" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="C365" t="s">
+        <v>961</v>
+      </c>
+      <c r="D365" t="s">
+        <v>963</v>
+      </c>
+      <c r="E365" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="F365" t="s">
+        <v>965</v>
+      </c>
+      <c r="G365" s="16" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A366" s="16"/>
+      <c r="B366" s="17"/>
+      <c r="C366" t="s">
+        <v>962</v>
+      </c>
+      <c r="E366" s="17"/>
+      <c r="G366" s="16"/>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A367" s="16"/>
+      <c r="B367" s="17"/>
+      <c r="C367" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E367" s="17"/>
+      <c r="G367" s="16"/>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A368" s="16">
+        <v>102</v>
+      </c>
+      <c r="B368" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="D368" t="s">
+        <v>969</v>
+      </c>
+      <c r="E368" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="F368" t="s">
+        <v>972</v>
+      </c>
+      <c r="G368" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="H368" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A369" s="16"/>
+      <c r="B369" s="17"/>
+      <c r="D369" t="s">
+        <v>970</v>
+      </c>
+      <c r="E369" s="17"/>
+      <c r="G369" s="16"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A370" s="16"/>
+      <c r="B370" s="17"/>
+      <c r="C370" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E370" s="17"/>
+      <c r="G370" s="16"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A371" s="16">
+        <v>103</v>
+      </c>
+      <c r="B371" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="C371" t="s">
+        <v>986</v>
+      </c>
+      <c r="D371" t="s">
+        <v>987</v>
+      </c>
+      <c r="E371" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="F371" t="s">
+        <v>989</v>
+      </c>
+      <c r="G371" s="16" t="s">
+        <v>990</v>
+      </c>
+      <c r="H371" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A372" s="16"/>
+      <c r="B372" s="17"/>
+      <c r="D372" t="s">
+        <v>988</v>
+      </c>
+      <c r="E372" s="17"/>
+      <c r="G372" s="16"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A373" s="16"/>
+      <c r="B373" s="17"/>
+      <c r="C373" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E373" s="17"/>
+      <c r="G373" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="381">
-    <mergeCell ref="A344:A347"/>
-    <mergeCell ref="B344:B347"/>
-    <mergeCell ref="E344:E347"/>
-    <mergeCell ref="G344:G347"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="E330:E333"/>
-    <mergeCell ref="G330:G333"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="E321:E324"/>
-    <mergeCell ref="G320:G324"/>
-    <mergeCell ref="A311:A313"/>
-    <mergeCell ref="B311:B313"/>
-    <mergeCell ref="E311:E313"/>
-    <mergeCell ref="G311:G313"/>
-    <mergeCell ref="B325:B329"/>
-    <mergeCell ref="E325:E329"/>
-    <mergeCell ref="G325:G329"/>
-    <mergeCell ref="E303:E306"/>
-    <mergeCell ref="A314:A317"/>
-    <mergeCell ref="B314:B317"/>
-    <mergeCell ref="E314:E317"/>
-    <mergeCell ref="G314:G316"/>
-    <mergeCell ref="B318:B320"/>
-    <mergeCell ref="A318:A320"/>
-    <mergeCell ref="E318:E320"/>
-    <mergeCell ref="G317:G319"/>
-    <mergeCell ref="B307:B310"/>
-    <mergeCell ref="A307:A310"/>
-    <mergeCell ref="E307:E310"/>
-    <mergeCell ref="G307:G310"/>
-    <mergeCell ref="G228:G231"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="E235:E238"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="E220:E224"/>
-    <mergeCell ref="E225:E227"/>
-    <mergeCell ref="G280:G283"/>
+  <mergeCells count="409">
+    <mergeCell ref="A371:A373"/>
+    <mergeCell ref="B371:B373"/>
+    <mergeCell ref="E371:E373"/>
+    <mergeCell ref="G371:G373"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="E358:E361"/>
+    <mergeCell ref="G358:G361"/>
+    <mergeCell ref="G300:G302"/>
+    <mergeCell ref="B293:B295"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A231"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="A245:A247"/>
+    <mergeCell ref="A248:A250"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="E251:E254"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="E259:E262"/>
+    <mergeCell ref="G259:G262"/>
+    <mergeCell ref="E263:E265"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="A259:A262"/>
     <mergeCell ref="B296:B299"/>
-    <mergeCell ref="B280:B283"/>
-    <mergeCell ref="B287:B289"/>
-    <mergeCell ref="E287:E289"/>
-    <mergeCell ref="G287:G289"/>
-    <mergeCell ref="B290:B292"/>
-    <mergeCell ref="E290:E292"/>
-    <mergeCell ref="G290:G292"/>
-    <mergeCell ref="B284:B286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="G284:G286"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="E296:E299"/>
+    <mergeCell ref="E300:E302"/>
+    <mergeCell ref="E277:E279"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A220:A224"/>
+    <mergeCell ref="A287:A289"/>
+    <mergeCell ref="A290:A292"/>
+    <mergeCell ref="E280:E283"/>
+    <mergeCell ref="E269:E273"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="E255:E258"/>
+    <mergeCell ref="B300:B302"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="A269:A273"/>
+    <mergeCell ref="A274:A276"/>
+    <mergeCell ref="A277:A279"/>
+    <mergeCell ref="A280:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="B277:B279"/>
+    <mergeCell ref="E248:E250"/>
     <mergeCell ref="E293:E295"/>
-    <mergeCell ref="G293:G295"/>
-    <mergeCell ref="G296:G299"/>
+    <mergeCell ref="A293:A295"/>
+    <mergeCell ref="A296:A299"/>
+    <mergeCell ref="A300:A302"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="E209:E211"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="E179:E183"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B228:B231"/>
+    <mergeCell ref="E228:E231"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="E216:E219"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="E193:E195"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A95:A101"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A110:A116"/>
+    <mergeCell ref="A117:A124"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="A128:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="A140:A144"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="E205:E208"/>
+    <mergeCell ref="G205:G208"/>
+    <mergeCell ref="B259:B262"/>
     <mergeCell ref="G212:G215"/>
     <mergeCell ref="E266:E268"/>
     <mergeCell ref="G266:G268"/>
     <mergeCell ref="G251:G254"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="G255:G258"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="E245:E247"/>
-    <mergeCell ref="G245:G247"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="G248:G250"/>
-    <mergeCell ref="E248:E250"/>
-    <mergeCell ref="G235:G237"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="E216:E219"/>
-    <mergeCell ref="G216:G219"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="E242:E244"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="G232:G234"/>
-    <mergeCell ref="G220:G224"/>
-    <mergeCell ref="G225:G227"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="G172:G174"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="E168:E171"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="G168:G171"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="G165:G167"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="E175:E178"/>
-    <mergeCell ref="G175:G178"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="E172:E174"/>
-    <mergeCell ref="G179:G183"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="E193:E195"/>
-    <mergeCell ref="G193:G195"/>
-    <mergeCell ref="B184:B186"/>
-    <mergeCell ref="E184:E186"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="E128:E131"/>
-    <mergeCell ref="G117:G124"/>
-    <mergeCell ref="B117:B124"/>
-    <mergeCell ref="E117:E124"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="G132:G134"/>
-    <mergeCell ref="G110:G116"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="E95:E101"/>
-    <mergeCell ref="E110:E116"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="G95:G101"/>
-    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="E140:E144"/>
+    <mergeCell ref="G140:G144"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="G269:G273"/>
+    <mergeCell ref="B274:B276"/>
+    <mergeCell ref="G274:G276"/>
+    <mergeCell ref="E274:E276"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="G184:G186"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="G190:G192"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="G202:G204"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="E199:E201"/>
+    <mergeCell ref="G199:G201"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="G209:G211"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="G105:G109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="G39:G42"/>
     <mergeCell ref="E69:E71"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="G69:G71"/>
@@ -9617,69 +10389,28 @@
     <mergeCell ref="E51:E54"/>
     <mergeCell ref="G43:G46"/>
     <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="B110:B116"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="G85:G88"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="G105:G109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="G110:G116"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="E95:E101"/>
+    <mergeCell ref="E110:E116"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="G95:G101"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="G125:G127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="E184:E186"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="G117:G124"/>
+    <mergeCell ref="B117:B124"/>
+    <mergeCell ref="E117:E124"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="G132:G134"/>
     <mergeCell ref="E135:E137"/>
     <mergeCell ref="B138:B139"/>
     <mergeCell ref="E150:E152"/>
@@ -9694,153 +10425,114 @@
     <mergeCell ref="E145:E147"/>
     <mergeCell ref="G145:G147"/>
     <mergeCell ref="G135:G137"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="E140:E144"/>
-    <mergeCell ref="G140:G144"/>
+    <mergeCell ref="G235:G237"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="G172:G174"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="E168:E171"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="G168:G171"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="G165:G167"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="E175:E178"/>
+    <mergeCell ref="G175:G178"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="E172:E174"/>
+    <mergeCell ref="G179:G183"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="G193:G195"/>
+    <mergeCell ref="G293:G295"/>
+    <mergeCell ref="G296:G299"/>
+    <mergeCell ref="G216:G219"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="E242:E244"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="G232:G234"/>
+    <mergeCell ref="G220:G224"/>
+    <mergeCell ref="G225:G227"/>
+    <mergeCell ref="G228:G231"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="E235:E238"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="E220:E224"/>
+    <mergeCell ref="E225:E227"/>
+    <mergeCell ref="G255:G258"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="E245:E247"/>
+    <mergeCell ref="G245:G247"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="G248:G250"/>
+    <mergeCell ref="B280:B283"/>
+    <mergeCell ref="G287:G289"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="E290:E292"/>
+    <mergeCell ref="G290:G292"/>
+    <mergeCell ref="B284:B286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="G284:G286"/>
     <mergeCell ref="G277:G279"/>
     <mergeCell ref="B269:B273"/>
-    <mergeCell ref="E269:E273"/>
-    <mergeCell ref="G269:G273"/>
-    <mergeCell ref="B274:B276"/>
-    <mergeCell ref="G274:G276"/>
-    <mergeCell ref="E274:E276"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="G184:G186"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="G190:G192"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="G202:G204"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="E199:E201"/>
-    <mergeCell ref="G199:G201"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="G209:G211"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="E205:E208"/>
-    <mergeCell ref="G205:G208"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="A110:A116"/>
-    <mergeCell ref="A117:A124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="A168:A171"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="E280:E283"/>
-    <mergeCell ref="A293:A295"/>
-    <mergeCell ref="A296:A299"/>
-    <mergeCell ref="A300:A302"/>
-    <mergeCell ref="A175:A178"/>
-    <mergeCell ref="A179:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="E209:E211"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="E179:E183"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B228:B231"/>
-    <mergeCell ref="E228:E231"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="A220:A224"/>
-    <mergeCell ref="A287:A289"/>
-    <mergeCell ref="A290:A292"/>
-    <mergeCell ref="A325:A329"/>
-    <mergeCell ref="B300:B302"/>
-    <mergeCell ref="A266:A268"/>
-    <mergeCell ref="A269:A273"/>
-    <mergeCell ref="A274:A276"/>
-    <mergeCell ref="A277:A279"/>
-    <mergeCell ref="A280:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="B277:B279"/>
+    <mergeCell ref="G280:G283"/>
+    <mergeCell ref="B287:B289"/>
+    <mergeCell ref="E287:E289"/>
+    <mergeCell ref="E303:E306"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="B314:B317"/>
+    <mergeCell ref="E314:E317"/>
+    <mergeCell ref="G314:G316"/>
+    <mergeCell ref="B318:B320"/>
+    <mergeCell ref="A318:A320"/>
+    <mergeCell ref="E318:E320"/>
+    <mergeCell ref="G317:G319"/>
+    <mergeCell ref="B307:B310"/>
+    <mergeCell ref="A307:A310"/>
+    <mergeCell ref="E307:E310"/>
+    <mergeCell ref="G307:G310"/>
+    <mergeCell ref="G320:G324"/>
     <mergeCell ref="B303:B306"/>
     <mergeCell ref="A303:A306"/>
-    <mergeCell ref="G300:G302"/>
-    <mergeCell ref="B293:B295"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A231"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="A245:A247"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="E251:E254"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="E259:E262"/>
-    <mergeCell ref="G259:G262"/>
-    <mergeCell ref="E263:E265"/>
-    <mergeCell ref="G263:G265"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="E296:E299"/>
-    <mergeCell ref="E300:E302"/>
-    <mergeCell ref="E277:E279"/>
+    <mergeCell ref="G334:G337"/>
+    <mergeCell ref="A338:A340"/>
+    <mergeCell ref="B338:B340"/>
+    <mergeCell ref="E338:E340"/>
+    <mergeCell ref="G338:G340"/>
+    <mergeCell ref="A311:A313"/>
+    <mergeCell ref="B311:B313"/>
+    <mergeCell ref="E311:E313"/>
+    <mergeCell ref="G311:G313"/>
+    <mergeCell ref="B325:B329"/>
+    <mergeCell ref="E325:E329"/>
+    <mergeCell ref="G325:G329"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="E321:E324"/>
+    <mergeCell ref="A325:A329"/>
+    <mergeCell ref="B351:B357"/>
+    <mergeCell ref="A351:A357"/>
+    <mergeCell ref="E351:E357"/>
+    <mergeCell ref="G351:G357"/>
+    <mergeCell ref="A344:A347"/>
+    <mergeCell ref="B344:B347"/>
+    <mergeCell ref="E344:E347"/>
+    <mergeCell ref="G344:G347"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="E330:E333"/>
+    <mergeCell ref="G330:G333"/>
+    <mergeCell ref="B348:B350"/>
+    <mergeCell ref="E348:E350"/>
+    <mergeCell ref="G348:G350"/>
+    <mergeCell ref="A348:A350"/>
     <mergeCell ref="B341:B343"/>
     <mergeCell ref="A341:A343"/>
     <mergeCell ref="E341:E343"/>
@@ -9848,11 +10540,18 @@
     <mergeCell ref="B334:B337"/>
     <mergeCell ref="A334:A337"/>
     <mergeCell ref="E334:E337"/>
-    <mergeCell ref="G334:G337"/>
-    <mergeCell ref="A338:A340"/>
-    <mergeCell ref="B338:B340"/>
-    <mergeCell ref="E338:E340"/>
-    <mergeCell ref="G338:G340"/>
+    <mergeCell ref="A365:A367"/>
+    <mergeCell ref="B365:B367"/>
+    <mergeCell ref="E365:E367"/>
+    <mergeCell ref="G365:G367"/>
+    <mergeCell ref="A368:A370"/>
+    <mergeCell ref="B368:B370"/>
+    <mergeCell ref="E368:E370"/>
+    <mergeCell ref="G368:G370"/>
+    <mergeCell ref="A362:A364"/>
+    <mergeCell ref="B362:B364"/>
+    <mergeCell ref="G362:G364"/>
+    <mergeCell ref="E362:E364"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/Comments/Delicacy.xlsx
+++ b/Comments/Delicacy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Life\Delicacy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7C284-EEDB-416C-8642-F85F9DC20E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5660C8CC-C9F4-4BCB-973F-76FAE2277730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21736" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="1004">
   <si>
     <t>美食</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3959,6 +3959,54 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1Upm8YxEeo/?spm_id_from=333.999.0.0</t>
+  </si>
+  <si>
+    <t>俄餐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉甜椒（1个）：30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火腿芝士可丽饼：25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉罗宋汤：37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价：92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正宗俄餐，老板娘是前苏联人。俄餐评价很地道。但可能不太符合我的口味，感觉味道太淡了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可丽饼最好吃，牛肉甜椒类似于辣椒酿肉的味道，但辣椒的辛辣感很少。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗宋汤正宗红菜熬出来的，没放番茄酱，很正宗，但对我来说口味太淡了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锦江区东四横街8号，地铁6号线顺江路C口步行1.2km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺江路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄潜舟廷Yellow Submarine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1DM6GY4Esy/?spm_id_from=333.1387.favlist.content.click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4099,7 +4147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4133,6 +4181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4420,10 +4469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H373"/>
+  <dimension ref="A1:H377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A360" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D379" sqref="D379"/>
+    <sheetView tabSelected="1" topLeftCell="E330" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H381" sqref="H381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -10141,87 +10190,360 @@
       <c r="E373" s="17"/>
       <c r="G373" s="16"/>
     </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A374" s="16">
+        <v>104</v>
+      </c>
+      <c r="B374" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="C374" t="s">
+        <v>993</v>
+      </c>
+      <c r="D374" t="s">
+        <v>997</v>
+      </c>
+      <c r="E374" s="17" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F374" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G374" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H374" s="19" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A375" s="16"/>
+      <c r="B375" s="17"/>
+      <c r="C375" t="s">
+        <v>994</v>
+      </c>
+      <c r="D375" t="s">
+        <v>998</v>
+      </c>
+      <c r="E375" s="17"/>
+      <c r="G375" s="16"/>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A376" s="16"/>
+      <c r="B376" s="17"/>
+      <c r="C376" t="s">
+        <v>995</v>
+      </c>
+      <c r="D376" t="s">
+        <v>999</v>
+      </c>
+      <c r="E376" s="17"/>
+      <c r="G376" s="16"/>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A377" s="16"/>
+      <c r="B377" s="17"/>
+      <c r="C377" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E377" s="17"/>
+      <c r="G377" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="409">
-    <mergeCell ref="A371:A373"/>
-    <mergeCell ref="B371:B373"/>
-    <mergeCell ref="E371:E373"/>
-    <mergeCell ref="G371:G373"/>
-    <mergeCell ref="B358:B361"/>
-    <mergeCell ref="A358:A361"/>
-    <mergeCell ref="E358:E361"/>
-    <mergeCell ref="G358:G361"/>
-    <mergeCell ref="G300:G302"/>
-    <mergeCell ref="B293:B295"/>
-    <mergeCell ref="A225:A227"/>
-    <mergeCell ref="A228:A231"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="A245:A247"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="A251:A254"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="E251:E254"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="E259:E262"/>
-    <mergeCell ref="G259:G262"/>
-    <mergeCell ref="E263:E265"/>
-    <mergeCell ref="G263:G265"/>
-    <mergeCell ref="A255:A258"/>
-    <mergeCell ref="A259:A262"/>
-    <mergeCell ref="B296:B299"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="E296:E299"/>
-    <mergeCell ref="E300:E302"/>
-    <mergeCell ref="E277:E279"/>
-    <mergeCell ref="A212:A215"/>
-    <mergeCell ref="A216:A219"/>
-    <mergeCell ref="A220:A224"/>
-    <mergeCell ref="A287:A289"/>
-    <mergeCell ref="A290:A292"/>
-    <mergeCell ref="E280:E283"/>
-    <mergeCell ref="E269:E273"/>
-    <mergeCell ref="B255:B258"/>
-    <mergeCell ref="E255:E258"/>
-    <mergeCell ref="B300:B302"/>
-    <mergeCell ref="A266:A268"/>
-    <mergeCell ref="A269:A273"/>
-    <mergeCell ref="A274:A276"/>
-    <mergeCell ref="A277:A279"/>
-    <mergeCell ref="A280:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="B277:B279"/>
-    <mergeCell ref="E248:E250"/>
-    <mergeCell ref="E293:E295"/>
-    <mergeCell ref="A293:A295"/>
-    <mergeCell ref="A296:A299"/>
-    <mergeCell ref="A300:A302"/>
-    <mergeCell ref="A175:A178"/>
-    <mergeCell ref="A179:A183"/>
-    <mergeCell ref="A184:A186"/>
-    <mergeCell ref="A187:A189"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="A196:A198"/>
-    <mergeCell ref="A199:A201"/>
-    <mergeCell ref="A202:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="E209:E211"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="E179:E183"/>
-    <mergeCell ref="B212:B215"/>
-    <mergeCell ref="E212:E215"/>
-    <mergeCell ref="B220:B224"/>
-    <mergeCell ref="B228:B231"/>
-    <mergeCell ref="E228:E231"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="E216:E219"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="E193:E195"/>
-    <mergeCell ref="B209:B211"/>
+  <mergeCells count="413">
+    <mergeCell ref="B374:B377"/>
+    <mergeCell ref="A374:A377"/>
+    <mergeCell ref="E374:E377"/>
+    <mergeCell ref="G374:G377"/>
+    <mergeCell ref="A365:A367"/>
+    <mergeCell ref="B365:B367"/>
+    <mergeCell ref="E365:E367"/>
+    <mergeCell ref="G365:G367"/>
+    <mergeCell ref="A368:A370"/>
+    <mergeCell ref="B368:B370"/>
+    <mergeCell ref="E368:E370"/>
+    <mergeCell ref="G368:G370"/>
+    <mergeCell ref="A362:A364"/>
+    <mergeCell ref="B362:B364"/>
+    <mergeCell ref="G362:G364"/>
+    <mergeCell ref="E362:E364"/>
+    <mergeCell ref="B351:B357"/>
+    <mergeCell ref="A351:A357"/>
+    <mergeCell ref="E351:E357"/>
+    <mergeCell ref="G351:G357"/>
+    <mergeCell ref="A344:A347"/>
+    <mergeCell ref="B344:B347"/>
+    <mergeCell ref="E344:E347"/>
+    <mergeCell ref="G344:G347"/>
+    <mergeCell ref="A330:A333"/>
+    <mergeCell ref="B330:B333"/>
+    <mergeCell ref="E330:E333"/>
+    <mergeCell ref="G330:G333"/>
+    <mergeCell ref="B348:B350"/>
+    <mergeCell ref="E348:E350"/>
+    <mergeCell ref="G348:G350"/>
+    <mergeCell ref="A348:A350"/>
+    <mergeCell ref="B341:B343"/>
+    <mergeCell ref="A341:A343"/>
+    <mergeCell ref="E341:E343"/>
+    <mergeCell ref="G341:G343"/>
+    <mergeCell ref="B334:B337"/>
+    <mergeCell ref="A334:A337"/>
+    <mergeCell ref="E334:E337"/>
+    <mergeCell ref="G307:G310"/>
+    <mergeCell ref="G320:G324"/>
+    <mergeCell ref="B303:B306"/>
+    <mergeCell ref="A303:A306"/>
+    <mergeCell ref="G334:G337"/>
+    <mergeCell ref="A338:A340"/>
+    <mergeCell ref="B338:B340"/>
+    <mergeCell ref="E338:E340"/>
+    <mergeCell ref="G338:G340"/>
+    <mergeCell ref="A311:A313"/>
+    <mergeCell ref="B311:B313"/>
+    <mergeCell ref="E311:E313"/>
+    <mergeCell ref="G311:G313"/>
+    <mergeCell ref="B325:B329"/>
+    <mergeCell ref="E325:E329"/>
+    <mergeCell ref="G325:G329"/>
+    <mergeCell ref="B321:B324"/>
+    <mergeCell ref="A321:A324"/>
+    <mergeCell ref="E321:E324"/>
+    <mergeCell ref="A325:A329"/>
+    <mergeCell ref="G245:G247"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="G248:G250"/>
+    <mergeCell ref="B280:B283"/>
+    <mergeCell ref="G287:G289"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="E290:E292"/>
+    <mergeCell ref="G290:G292"/>
+    <mergeCell ref="B284:B286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="G284:G286"/>
+    <mergeCell ref="G277:G279"/>
+    <mergeCell ref="B269:B273"/>
+    <mergeCell ref="G280:G283"/>
+    <mergeCell ref="B287:B289"/>
+    <mergeCell ref="E287:E289"/>
+    <mergeCell ref="G216:G219"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="E242:E244"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="G232:G234"/>
+    <mergeCell ref="G220:G224"/>
+    <mergeCell ref="G225:G227"/>
+    <mergeCell ref="G228:G231"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="E235:E238"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="B235:B238"/>
+    <mergeCell ref="E220:E224"/>
+    <mergeCell ref="E225:E227"/>
+    <mergeCell ref="G235:G237"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B175:B178"/>
+    <mergeCell ref="G172:G174"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="E159:E161"/>
+    <mergeCell ref="G159:G161"/>
+    <mergeCell ref="E168:E171"/>
+    <mergeCell ref="B168:B171"/>
+    <mergeCell ref="G168:G171"/>
+    <mergeCell ref="E165:E167"/>
+    <mergeCell ref="G165:G167"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="E175:E178"/>
+    <mergeCell ref="G175:G178"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="E172:E174"/>
+    <mergeCell ref="G179:G183"/>
+    <mergeCell ref="B196:B198"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="E196:E198"/>
+    <mergeCell ref="G193:G195"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="E150:E152"/>
+    <mergeCell ref="G150:G152"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="G148:G149"/>
+    <mergeCell ref="B153:B156"/>
+    <mergeCell ref="G153:G156"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="G135:G137"/>
+    <mergeCell ref="G110:G116"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="E95:E101"/>
+    <mergeCell ref="E110:E116"/>
+    <mergeCell ref="E102:E104"/>
+    <mergeCell ref="G102:G104"/>
+    <mergeCell ref="G95:G101"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="G125:G127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="E128:E131"/>
+    <mergeCell ref="G117:G124"/>
+    <mergeCell ref="B117:B124"/>
+    <mergeCell ref="E117:E124"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="G132:G134"/>
+    <mergeCell ref="E69:E71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="G29:G34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="G43:G46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="G47:G50"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="G39:G42"/>
+    <mergeCell ref="E43:E46"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="E66:E68"/>
+    <mergeCell ref="G66:G68"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="B110:B116"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="G89:G91"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="G82:G84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="E105:E109"/>
+    <mergeCell ref="G105:G109"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="B140:B144"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="E140:E144"/>
+    <mergeCell ref="G140:G144"/>
+    <mergeCell ref="E153:E156"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="G269:G273"/>
+    <mergeCell ref="B274:B276"/>
+    <mergeCell ref="G274:G276"/>
+    <mergeCell ref="E274:E276"/>
+    <mergeCell ref="E187:E189"/>
+    <mergeCell ref="G184:G186"/>
+    <mergeCell ref="E190:E192"/>
+    <mergeCell ref="G190:G192"/>
+    <mergeCell ref="E202:E204"/>
+    <mergeCell ref="G202:G204"/>
+    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="B199:B201"/>
+    <mergeCell ref="E199:E201"/>
+    <mergeCell ref="G199:G201"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="G209:G211"/>
+    <mergeCell ref="B205:B208"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="G205:G208"/>
+    <mergeCell ref="B259:B262"/>
+    <mergeCell ref="G212:G215"/>
+    <mergeCell ref="E266:E268"/>
+    <mergeCell ref="G266:G268"/>
+    <mergeCell ref="G251:G254"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A145:A147"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="A85:A88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A150:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A165:A167"/>
+    <mergeCell ref="A168:A171"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B216:B219"/>
     <mergeCell ref="A92:A94"/>
@@ -10246,245 +10568,93 @@
     <mergeCell ref="A138:A139"/>
     <mergeCell ref="B165:B167"/>
     <mergeCell ref="A140:A144"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A150:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="A165:A167"/>
-    <mergeCell ref="A168:A171"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="E209:E211"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="E179:E183"/>
+    <mergeCell ref="B212:B215"/>
+    <mergeCell ref="E212:E215"/>
+    <mergeCell ref="B220:B224"/>
+    <mergeCell ref="B228:B231"/>
+    <mergeCell ref="E228:E231"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="E216:E219"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="E193:E195"/>
+    <mergeCell ref="B209:B211"/>
     <mergeCell ref="E205:E208"/>
-    <mergeCell ref="G205:G208"/>
-    <mergeCell ref="B259:B262"/>
-    <mergeCell ref="G212:G215"/>
-    <mergeCell ref="E266:E268"/>
-    <mergeCell ref="G266:G268"/>
-    <mergeCell ref="G251:G254"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A145:A147"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="A85:A88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="B140:B144"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="E140:E144"/>
-    <mergeCell ref="G140:G144"/>
-    <mergeCell ref="E153:E156"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="G269:G273"/>
-    <mergeCell ref="B274:B276"/>
-    <mergeCell ref="G274:G276"/>
-    <mergeCell ref="E274:E276"/>
-    <mergeCell ref="E187:E189"/>
-    <mergeCell ref="G184:G186"/>
-    <mergeCell ref="E190:E192"/>
-    <mergeCell ref="G190:G192"/>
-    <mergeCell ref="E202:E204"/>
-    <mergeCell ref="G202:G204"/>
-    <mergeCell ref="B202:B204"/>
-    <mergeCell ref="B199:B201"/>
-    <mergeCell ref="E199:E201"/>
-    <mergeCell ref="G199:G201"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="G209:G211"/>
-    <mergeCell ref="B205:B208"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E82:E84"/>
-    <mergeCell ref="G82:G84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="G85:G88"/>
-    <mergeCell ref="B102:B104"/>
-    <mergeCell ref="E105:E109"/>
-    <mergeCell ref="G105:G109"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="E43:E46"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="E66:E68"/>
-    <mergeCell ref="G66:G68"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="B110:B116"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="G89:G91"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="G47:G50"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="E55:E57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="G39:G42"/>
-    <mergeCell ref="E69:E71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="G29:G34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G19:G22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="G43:G46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="G110:G116"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="E95:E101"/>
-    <mergeCell ref="E110:E116"/>
-    <mergeCell ref="E102:E104"/>
-    <mergeCell ref="G102:G104"/>
-    <mergeCell ref="G95:G101"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="G125:G127"/>
-    <mergeCell ref="B128:B131"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B184:B186"/>
     <mergeCell ref="E184:E186"/>
     <mergeCell ref="B190:B192"/>
-    <mergeCell ref="G128:G131"/>
-    <mergeCell ref="E128:E131"/>
-    <mergeCell ref="G117:G124"/>
-    <mergeCell ref="B117:B124"/>
-    <mergeCell ref="E117:E124"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="G132:G134"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="E150:E152"/>
-    <mergeCell ref="G150:G152"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="G148:G149"/>
-    <mergeCell ref="B153:B156"/>
-    <mergeCell ref="G153:G156"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="G135:G137"/>
-    <mergeCell ref="G235:G237"/>
-    <mergeCell ref="B225:B227"/>
-    <mergeCell ref="B175:B178"/>
-    <mergeCell ref="G172:G174"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="E159:E161"/>
-    <mergeCell ref="G159:G161"/>
-    <mergeCell ref="E168:E171"/>
-    <mergeCell ref="B168:B171"/>
-    <mergeCell ref="G168:G171"/>
-    <mergeCell ref="E165:E167"/>
-    <mergeCell ref="G165:G167"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="E175:E178"/>
-    <mergeCell ref="G175:G178"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="E172:E174"/>
-    <mergeCell ref="G179:G183"/>
-    <mergeCell ref="B196:B198"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="E196:E198"/>
-    <mergeCell ref="G193:G195"/>
+    <mergeCell ref="A175:A178"/>
+    <mergeCell ref="A179:A183"/>
+    <mergeCell ref="A184:A186"/>
+    <mergeCell ref="A187:A189"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="A196:A198"/>
+    <mergeCell ref="A199:A201"/>
+    <mergeCell ref="A202:A204"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A220:A224"/>
+    <mergeCell ref="A287:A289"/>
+    <mergeCell ref="A290:A292"/>
+    <mergeCell ref="E280:E283"/>
+    <mergeCell ref="E269:E273"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="E255:E258"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="A269:A273"/>
+    <mergeCell ref="A274:A276"/>
+    <mergeCell ref="A277:A279"/>
+    <mergeCell ref="A280:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="B277:B279"/>
+    <mergeCell ref="E248:E250"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="E245:E247"/>
+    <mergeCell ref="E251:E254"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="E259:E262"/>
+    <mergeCell ref="G259:G262"/>
+    <mergeCell ref="E263:E265"/>
+    <mergeCell ref="G263:G265"/>
+    <mergeCell ref="A255:A258"/>
+    <mergeCell ref="A259:A262"/>
+    <mergeCell ref="B296:B299"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="E296:E299"/>
+    <mergeCell ref="E277:E279"/>
+    <mergeCell ref="E293:E295"/>
+    <mergeCell ref="A293:A295"/>
+    <mergeCell ref="A296:A299"/>
     <mergeCell ref="G293:G295"/>
     <mergeCell ref="G296:G299"/>
-    <mergeCell ref="G216:G219"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="E242:E244"/>
-    <mergeCell ref="B232:B234"/>
-    <mergeCell ref="E232:E234"/>
-    <mergeCell ref="G232:G234"/>
-    <mergeCell ref="G220:G224"/>
-    <mergeCell ref="G225:G227"/>
-    <mergeCell ref="G228:G231"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="E235:E238"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="B235:B238"/>
-    <mergeCell ref="E220:E224"/>
-    <mergeCell ref="E225:E227"/>
     <mergeCell ref="G255:G258"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="E245:E247"/>
-    <mergeCell ref="G245:G247"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="G248:G250"/>
-    <mergeCell ref="B280:B283"/>
-    <mergeCell ref="G287:G289"/>
-    <mergeCell ref="B290:B292"/>
-    <mergeCell ref="E290:E292"/>
-    <mergeCell ref="G290:G292"/>
-    <mergeCell ref="B284:B286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="G284:G286"/>
-    <mergeCell ref="G277:G279"/>
-    <mergeCell ref="B269:B273"/>
-    <mergeCell ref="G280:G283"/>
-    <mergeCell ref="B287:B289"/>
-    <mergeCell ref="E287:E289"/>
+    <mergeCell ref="B293:B295"/>
+    <mergeCell ref="A225:A227"/>
+    <mergeCell ref="A228:A231"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="A245:A247"/>
+    <mergeCell ref="A248:A250"/>
+    <mergeCell ref="A251:A254"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="A371:A373"/>
+    <mergeCell ref="B371:B373"/>
+    <mergeCell ref="E371:E373"/>
+    <mergeCell ref="G371:G373"/>
+    <mergeCell ref="B358:B361"/>
+    <mergeCell ref="A358:A361"/>
+    <mergeCell ref="E358:E361"/>
+    <mergeCell ref="G358:G361"/>
+    <mergeCell ref="G300:G302"/>
+    <mergeCell ref="E300:E302"/>
+    <mergeCell ref="B300:B302"/>
+    <mergeCell ref="A300:A302"/>
     <mergeCell ref="E303:E306"/>
     <mergeCell ref="A314:A317"/>
     <mergeCell ref="B314:B317"/>
@@ -10497,61 +10667,6 @@
     <mergeCell ref="B307:B310"/>
     <mergeCell ref="A307:A310"/>
     <mergeCell ref="E307:E310"/>
-    <mergeCell ref="G307:G310"/>
-    <mergeCell ref="G320:G324"/>
-    <mergeCell ref="B303:B306"/>
-    <mergeCell ref="A303:A306"/>
-    <mergeCell ref="G334:G337"/>
-    <mergeCell ref="A338:A340"/>
-    <mergeCell ref="B338:B340"/>
-    <mergeCell ref="E338:E340"/>
-    <mergeCell ref="G338:G340"/>
-    <mergeCell ref="A311:A313"/>
-    <mergeCell ref="B311:B313"/>
-    <mergeCell ref="E311:E313"/>
-    <mergeCell ref="G311:G313"/>
-    <mergeCell ref="B325:B329"/>
-    <mergeCell ref="E325:E329"/>
-    <mergeCell ref="G325:G329"/>
-    <mergeCell ref="B321:B324"/>
-    <mergeCell ref="A321:A324"/>
-    <mergeCell ref="E321:E324"/>
-    <mergeCell ref="A325:A329"/>
-    <mergeCell ref="B351:B357"/>
-    <mergeCell ref="A351:A357"/>
-    <mergeCell ref="E351:E357"/>
-    <mergeCell ref="G351:G357"/>
-    <mergeCell ref="A344:A347"/>
-    <mergeCell ref="B344:B347"/>
-    <mergeCell ref="E344:E347"/>
-    <mergeCell ref="G344:G347"/>
-    <mergeCell ref="A330:A333"/>
-    <mergeCell ref="B330:B333"/>
-    <mergeCell ref="E330:E333"/>
-    <mergeCell ref="G330:G333"/>
-    <mergeCell ref="B348:B350"/>
-    <mergeCell ref="E348:E350"/>
-    <mergeCell ref="G348:G350"/>
-    <mergeCell ref="A348:A350"/>
-    <mergeCell ref="B341:B343"/>
-    <mergeCell ref="A341:A343"/>
-    <mergeCell ref="E341:E343"/>
-    <mergeCell ref="G341:G343"/>
-    <mergeCell ref="B334:B337"/>
-    <mergeCell ref="A334:A337"/>
-    <mergeCell ref="E334:E337"/>
-    <mergeCell ref="A365:A367"/>
-    <mergeCell ref="B365:B367"/>
-    <mergeCell ref="E365:E367"/>
-    <mergeCell ref="G365:G367"/>
-    <mergeCell ref="A368:A370"/>
-    <mergeCell ref="B368:B370"/>
-    <mergeCell ref="E368:E370"/>
-    <mergeCell ref="G368:G370"/>
-    <mergeCell ref="A362:A364"/>
-    <mergeCell ref="B362:B364"/>
-    <mergeCell ref="G362:G364"/>
-    <mergeCell ref="E362:E364"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
